--- a/capiq_data/in_process_data/IQ890498.xlsx
+++ b/capiq_data/in_process_data/IQ890498.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD33F1C-0688-4A47-8DE1-506DB95D4FC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86824285-A756-4052-8046-A1A57132266D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"b8cecb05-8754-44b1-a3c9-ee76f4ffbd0a"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"2283bb03-f389-4dfe-8cb7-af7491cc6cc7"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$75</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$75</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$75</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$75</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$75</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$75</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$75</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$75</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$75</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$75</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$75</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$75</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$75</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$75</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$75</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$75</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$75</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$75</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$75</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$75</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$75</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$75</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$75</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$75</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$75</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$75</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$75</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="99">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,105 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
+  </si>
+  <si>
+    <t>FQ42010</t>
+  </si>
+  <si>
+    <t>FQ12011</t>
   </si>
   <si>
     <t>FQ22011</t>
@@ -633,7 +732,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -727,37 +826,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40512</v>
+        <v>37499</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>1025.5999999999999</v>
+        <v>26.487500000000001</v>
       </c>
       <c r="D2">
-        <v>2674.8</v>
+        <v>379.83150000000001</v>
       </c>
       <c r="E2">
-        <v>671.6</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>768.3</v>
+        <v>51.648000000000003</v>
       </c>
       <c r="G2">
-        <v>5524.3</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>14199.4</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>539.29999999999995</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>788.4</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>54.5</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -766,81 +865,81 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1770</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>3928.6</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>1309.2</v>
+        <v>554.54300000000001</v>
       </c>
       <c r="Q2">
-        <v>1296.7</v>
+        <v>-2.6524999999999999</v>
       </c>
       <c r="R2">
-        <v>40512</v>
+        <v>37499</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>10270.799999999999</v>
+        <v>530.25199999999995</v>
       </c>
       <c r="U2">
-        <v>3659.4</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>531.70000000000005</v>
+        <v>20.400500000000001</v>
       </c>
       <c r="W2">
-        <v>-22.3</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>-30.2</v>
+        <v>64.098500000000001</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>1030</v>
+        <v>-1.456</v>
       </c>
       <c r="AA2">
-        <v>1025.5999999999999</v>
+        <v>26.487500000000001</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40602</v>
+        <v>37590</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>542.1</v>
+        <v>26.487500000000001</v>
       </c>
       <c r="D3">
-        <v>2214.3000000000002</v>
+        <v>379.83150000000001</v>
       </c>
       <c r="E3">
-        <v>798.4</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>853.6</v>
+        <v>51.648000000000003</v>
       </c>
       <c r="G3">
-        <v>5693.6</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>14699.1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>670.1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>762.2</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>74.2</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -849,81 +948,81 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1534.5</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>3689.5</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>886.7</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>-307.3</v>
+        <v>-2.6524999999999999</v>
       </c>
       <c r="R3">
-        <v>40602</v>
+        <v>37590</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>11009.6</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>3352.1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>365.9</v>
+        <v>20.400500000000001</v>
       </c>
       <c r="W3">
-        <v>-22.4</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>-452.4</v>
+        <v>64.098500000000001</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>-1.456</v>
       </c>
       <c r="AA3">
-        <v>542.1</v>
+        <v>26.487500000000001</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40694</v>
+        <v>37680</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>649.20000000000005</v>
+        <v>-21.972000000000001</v>
       </c>
       <c r="D4">
-        <v>2860.4</v>
+        <v>438.351</v>
       </c>
       <c r="E4">
-        <v>878.5</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1035</v>
+        <v>-1.115</v>
       </c>
       <c r="G4">
-        <v>6684.9</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>15786.9</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>941.1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>761.3</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>23.6</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -932,120 +1031,120 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1928.5</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>4125</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>832.9</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>554.29999999999995</v>
+        <v>14.305</v>
       </c>
       <c r="R4">
-        <v>40694</v>
+        <v>37680</v>
       </c>
       <c r="S4">
-        <v>7700</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>11661.9</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>3906.4</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>972.9</v>
+        <v>36.442999999999998</v>
       </c>
       <c r="W4">
-        <v>-22.3</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>-69.400000000000006</v>
+        <v>-6.8849999999999998</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>-0.115</v>
       </c>
       <c r="AA4">
-        <v>649.20000000000005</v>
+        <v>-21.972000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40786</v>
+        <v>37772</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>526</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>3083.3</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>784.6</v>
+        <v>177.56700000000001</v>
       </c>
       <c r="F5">
-        <v>848.2</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>6757.8</v>
+        <v>533.91300000000001</v>
       </c>
       <c r="H5">
-        <v>16180.8</v>
+        <v>1599.2470000000001</v>
       </c>
       <c r="I5">
-        <v>903.1</v>
+        <v>83.527000000000001</v>
       </c>
       <c r="J5">
-        <v>737.4</v>
+        <v>364.39600000000002</v>
       </c>
       <c r="K5">
-        <v>13.6</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>-25.3</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>-1.8</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1783.9</v>
+        <v>399.71300000000002</v>
       </c>
       <c r="O5">
-        <v>3942.1</v>
+        <v>945.15700000000004</v>
       </c>
       <c r="P5">
-        <v>825.1</v>
+        <v>590.05200000000002</v>
       </c>
       <c r="Q5">
-        <v>131.6</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>40786</v>
+        <v>37772</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>12238.7</v>
+        <v>654.09</v>
       </c>
       <c r="U5">
-        <v>4038</v>
+        <v>7.7809999999999997</v>
       </c>
       <c r="V5">
-        <v>554.29999999999995</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>-22.4</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>-28.8</v>
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1054,125 +1153,125 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40877</v>
+        <v>37864</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>623.6</v>
+        <v>8.2279999999999998</v>
       </c>
       <c r="D6">
-        <v>3014.5</v>
+        <v>547.4</v>
       </c>
       <c r="E6">
-        <v>919.2</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>881.2</v>
+        <v>29.8</v>
       </c>
       <c r="G6">
-        <v>6359.4</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>15802.3</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>853.6</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>1008.9</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>28.3</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>-1.0669999999999999</v>
       </c>
       <c r="N6">
-        <v>2098.6999999999998</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>4482.1000000000004</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1550.7</v>
+        <v>590.05200000000002</v>
       </c>
       <c r="Q6">
-        <v>-410.4</v>
+        <v>7.1580000000000004</v>
       </c>
       <c r="R6">
-        <v>40877</v>
+        <v>37864</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>11320.2</v>
+        <v>654.09</v>
       </c>
       <c r="U6">
-        <v>3627.6</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>517.70000000000005</v>
+        <v>34.692</v>
       </c>
       <c r="W6">
-        <v>-22.3</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>-460.4</v>
+        <v>4.92</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>-8.2000000000000003E-2</v>
       </c>
       <c r="AA6">
-        <v>623.6</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40968</v>
+        <v>37955</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>273.3</v>
+        <v>16.571999999999999</v>
       </c>
       <c r="D7">
-        <v>2189.5</v>
+        <v>664.4</v>
       </c>
       <c r="E7">
-        <v>656.3</v>
+        <v>278.762</v>
       </c>
       <c r="F7">
-        <v>521.79999999999995</v>
+        <v>47.2</v>
       </c>
       <c r="G7">
-        <v>5930.4</v>
+        <v>620.65099999999995</v>
       </c>
       <c r="H7">
-        <v>15936.7</v>
+        <v>1711.9349999999999</v>
       </c>
       <c r="I7">
-        <v>800.5</v>
+        <v>53.353999999999999</v>
       </c>
       <c r="J7">
-        <v>1010.6</v>
+        <v>350.56900000000002</v>
       </c>
       <c r="K7">
-        <v>81.599999999999994</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1181,81 +1280,81 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1614.8</v>
+        <v>481.01900000000001</v>
       </c>
       <c r="O7">
-        <v>4106.3999999999996</v>
+        <v>1023.475</v>
       </c>
       <c r="P7">
-        <v>1093.3</v>
+        <v>603.96299999999997</v>
       </c>
       <c r="Q7">
-        <v>-425.7</v>
+        <v>-2.4580000000000002</v>
       </c>
       <c r="R7">
-        <v>40968</v>
+        <v>37955</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>11830.3</v>
+        <v>688.46</v>
       </c>
       <c r="U7">
-        <v>3201.9</v>
+        <v>12.455</v>
       </c>
       <c r="V7">
-        <v>404.5</v>
+        <v>41.607999999999997</v>
       </c>
       <c r="W7">
-        <v>-21.4</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>-479.9</v>
+        <v>-16.72</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>-8.8179999999999996</v>
       </c>
       <c r="AA7">
-        <v>273.3</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41060</v>
+        <v>38046</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>507.3</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="D8">
-        <v>2820.5</v>
+        <v>553.20000000000005</v>
       </c>
       <c r="E8">
-        <v>854.8</v>
+        <v>242.893</v>
       </c>
       <c r="F8">
-        <v>825.8</v>
+        <v>46.5</v>
       </c>
       <c r="G8">
-        <v>6581.1</v>
+        <v>659.40800000000002</v>
       </c>
       <c r="H8">
-        <v>16690.400000000001</v>
+        <v>1777.2750000000001</v>
       </c>
       <c r="I8">
-        <v>912.4</v>
+        <v>95.516999999999996</v>
       </c>
       <c r="J8">
-        <v>1010</v>
+        <v>351.04599999999999</v>
       </c>
       <c r="K8">
-        <v>42.5</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1264,120 +1363,120 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1917.7</v>
+        <v>517.03599999999994</v>
       </c>
       <c r="O8">
-        <v>4691</v>
+        <v>1063.4069999999999</v>
       </c>
       <c r="P8">
-        <v>1053</v>
+        <v>642.79700000000003</v>
       </c>
       <c r="Q8">
-        <v>609.1</v>
+        <v>-0.7</v>
       </c>
       <c r="R8">
-        <v>41060</v>
+        <v>38046</v>
       </c>
       <c r="S8">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>11999.4</v>
+        <v>713.86800000000005</v>
       </c>
       <c r="U8">
-        <v>3811</v>
+        <v>11.798999999999999</v>
       </c>
       <c r="V8">
-        <v>1229.3</v>
+        <v>-27.9</v>
       </c>
       <c r="W8">
-        <v>-53.4</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>-92</v>
+        <v>66.2</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AA8">
-        <v>507.3</v>
+        <v>16.399999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>38138</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C9">
-        <v>417.4</v>
+        <v>31.1</v>
       </c>
       <c r="D9">
-        <v>2645.7</v>
+        <v>609</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>205.4</v>
       </c>
       <c r="F9">
-        <v>774.6</v>
+        <v>54.1</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>668.5</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1870.5</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>111.3</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>350.8</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>-5.4</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>458.2</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1020.5</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>360.6</v>
       </c>
       <c r="Q9">
-        <v>-107.7</v>
+        <v>-1.7</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>38138</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>3649</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>10.1</v>
       </c>
       <c r="V9">
-        <v>343.8</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="W9">
-        <v>-106.6</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>-102.9</v>
+        <v>41.4</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1386,81 +1485,81 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>417.4</v>
+        <v>31.1</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>38230</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C10">
-        <v>615.70000000000005</v>
+        <v>41.1</v>
       </c>
       <c r="D10">
-        <v>2367.8000000000002</v>
+        <v>724.8</v>
       </c>
       <c r="E10">
-        <v>747.5</v>
+        <v>298.23500000000001</v>
       </c>
       <c r="F10">
-        <v>577.79999999999995</v>
+        <v>82.2</v>
       </c>
       <c r="G10">
-        <v>6510</v>
+        <v>761.35199999999998</v>
       </c>
       <c r="H10">
-        <v>17438.400000000001</v>
+        <v>2017.1679999999999</v>
       </c>
       <c r="I10">
-        <v>832.5</v>
+        <v>180.33199999999999</v>
       </c>
       <c r="J10">
-        <v>1009.8</v>
+        <v>339.14499999999998</v>
       </c>
       <c r="K10">
-        <v>50.7</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>-50.4</v>
+        <v>-9.3000000000000007</v>
       </c>
       <c r="M10">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>1668</v>
+        <v>544.07399999999996</v>
       </c>
       <c r="O10">
-        <v>4355.2</v>
+        <v>1117.4570000000001</v>
       </c>
       <c r="P10">
-        <v>1061.3</v>
+        <v>545.44500000000005</v>
       </c>
       <c r="Q10">
-        <v>-143.19999999999999</v>
+        <v>12.7</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>38230</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>13083.2</v>
+        <v>899.71100000000001</v>
       </c>
       <c r="U10">
-        <v>3405.3</v>
+        <v>22.841999999999999</v>
       </c>
       <c r="V10">
-        <v>377</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="W10">
-        <v>-106.7</v>
+        <v>-5</v>
       </c>
       <c r="X10">
-        <v>-82.6</v>
+        <v>-13.6</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1469,125 +1568,125 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>615.70000000000005</v>
+        <v>41.1</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>38321</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C11">
-        <v>379.8</v>
+        <v>-8.4</v>
       </c>
       <c r="D11">
-        <v>2312.4</v>
+        <v>1077.7</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>537</v>
       </c>
       <c r="F11">
-        <v>641.79999999999995</v>
+        <v>61.2</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1448.2</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>7921.6</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>417.3</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>2353.1</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>111.4</v>
       </c>
       <c r="L11">
-        <v>-64.2</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1019.6</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>4798.1000000000004</v>
       </c>
       <c r="P11">
-        <v>1061.3</v>
+        <v>2464.5</v>
       </c>
       <c r="Q11">
-        <v>106.1</v>
+        <v>99</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>38321</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>13083.2</v>
+        <v>3123.5</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>121.8</v>
       </c>
       <c r="V11">
-        <v>579.4</v>
+        <v>51.2</v>
       </c>
       <c r="W11">
-        <v>-106.4</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>-84.8</v>
+        <v>16.8</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-15</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="AA11">
-        <v>379.8</v>
+        <v>-8.4</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>38411</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C12">
-        <v>429.8</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="D12">
-        <v>2618.6999999999998</v>
+        <v>1144.5</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>556.4</v>
       </c>
       <c r="F12">
-        <v>665.3</v>
+        <v>136.5</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1524.6</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>8093.5</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>412.4</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>2515.5</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>98.4</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1596,81 +1695,81 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>904.3</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>4919</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>2613.9</v>
       </c>
       <c r="Q12">
-        <v>404.1</v>
+        <v>-11.4</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>38411</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>3174.5</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>110.4</v>
       </c>
       <c r="V12">
-        <v>982.3</v>
+        <v>-58</v>
       </c>
       <c r="W12">
-        <v>-106.8</v>
+        <v>-2</v>
       </c>
       <c r="X12">
-        <v>-152.30000000000001</v>
+        <v>138.5</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>-6.8</v>
+        <v>-0.3</v>
       </c>
       <c r="AA12">
-        <v>429.8</v>
+        <v>38.799999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>38503</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C13">
-        <v>124.4</v>
+        <v>94.1</v>
       </c>
       <c r="D13">
-        <v>1908.7</v>
+        <v>1449.7</v>
       </c>
       <c r="E13">
-        <v>748.9</v>
+        <v>578.9</v>
       </c>
       <c r="F13">
-        <v>386.9</v>
+        <v>275.89999999999998</v>
       </c>
       <c r="G13">
-        <v>6291.3</v>
+        <v>1728.3</v>
       </c>
       <c r="H13">
-        <v>17656.599999999999</v>
+        <v>8411.5</v>
       </c>
       <c r="I13">
-        <v>611.70000000000005</v>
+        <v>462.7</v>
       </c>
       <c r="J13">
-        <v>1011.5</v>
+        <v>2463.6999999999998</v>
       </c>
       <c r="K13">
-        <v>14.5</v>
+        <v>80.7</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1679,247 +1778,247 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1302.3</v>
+        <v>1152.5999999999999</v>
       </c>
       <c r="O13">
-        <v>4105.5</v>
+        <v>5176.2</v>
       </c>
       <c r="P13">
-        <v>1026.8</v>
+        <v>2668.6</v>
       </c>
       <c r="Q13">
-        <v>-576.9</v>
+        <v>134.6</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>38503</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>8500</v>
       </c>
       <c r="T13">
-        <v>13551.1</v>
+        <v>3235.3</v>
       </c>
       <c r="U13">
-        <v>3338.6</v>
+        <v>245</v>
       </c>
       <c r="V13">
-        <v>-45</v>
+        <v>263.10000000000002</v>
       </c>
       <c r="W13">
-        <v>-106.8</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>-89.5</v>
+        <v>-35.4</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-134.5</v>
+        <v>-3</v>
       </c>
       <c r="AA13">
-        <v>124.4</v>
+        <v>94.1</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>38595</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C14">
-        <v>-351.14276000000001</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="D14">
-        <v>1330.2156500000001</v>
+        <v>1403.6</v>
       </c>
       <c r="E14">
-        <v>612.5</v>
+        <v>665.2</v>
       </c>
       <c r="F14">
-        <v>-273.95690999999999</v>
+        <v>248.8</v>
       </c>
       <c r="G14">
-        <v>8105.8</v>
+        <v>1758.2</v>
       </c>
       <c r="H14">
-        <v>19554</v>
+        <v>8607.4</v>
       </c>
       <c r="I14">
-        <v>570.20000000000005</v>
+        <v>456.8</v>
       </c>
       <c r="J14">
-        <v>3008.9</v>
+        <v>2444.5</v>
       </c>
       <c r="K14">
-        <v>22.6</v>
+        <v>153.4</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>-61</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>-10.8</v>
       </c>
       <c r="N14">
-        <v>3265.9</v>
+        <v>1085.0999999999999</v>
       </c>
       <c r="O14">
-        <v>8233.4</v>
+        <v>5124</v>
       </c>
       <c r="P14">
-        <v>3031.9</v>
+        <v>2597.9</v>
       </c>
       <c r="Q14">
-        <v>2802.70046</v>
+        <v>-43.7</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>38595</v>
       </c>
       <c r="S14">
-        <v>8200</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>11320.6</v>
+        <v>3483.4</v>
       </c>
       <c r="U14">
-        <v>5293.1</v>
+        <v>201.3</v>
       </c>
       <c r="V14">
-        <v>7.98597</v>
+        <v>81.2</v>
       </c>
       <c r="W14">
-        <v>-46.000059999999998</v>
+        <v>-2.6</v>
       </c>
       <c r="X14">
-        <v>3249.97192</v>
+        <v>-37.299999999999997</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>-116.10005</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <v>-351.14276000000001</v>
+        <v>76.099999999999994</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38686</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C15">
-        <v>217.5</v>
+        <v>55</v>
       </c>
       <c r="D15">
-        <v>1986.2</v>
+        <v>1497.5</v>
       </c>
       <c r="E15">
-        <v>642.79999999999995</v>
+        <v>571.4</v>
       </c>
       <c r="F15">
-        <v>411.6</v>
+        <v>208.4</v>
       </c>
       <c r="G15">
-        <v>5355.4</v>
+        <v>1651.1</v>
       </c>
       <c r="H15">
-        <v>18112.3</v>
+        <v>8695.5</v>
       </c>
       <c r="I15">
-        <v>592.79999999999995</v>
+        <v>461.7</v>
       </c>
       <c r="J15">
-        <v>3009.1</v>
+        <v>2423.3000000000002</v>
       </c>
       <c r="K15">
-        <v>41.3</v>
+        <v>129.4</v>
       </c>
       <c r="L15">
-        <v>-58.4</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>2163.3000000000002</v>
+        <v>1102.5999999999999</v>
       </c>
       <c r="O15">
-        <v>7261.2</v>
+        <v>5085.7</v>
       </c>
       <c r="P15">
-        <v>3050.8</v>
+        <v>2552.6999999999998</v>
       </c>
       <c r="Q15">
-        <v>-2802.4</v>
+        <v>-35.299999999999997</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38686</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>10851.1</v>
+        <v>3609.8</v>
       </c>
       <c r="U15">
-        <v>2490.6999999999998</v>
+        <v>166</v>
       </c>
       <c r="V15">
-        <v>627</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="W15">
-        <v>-99.7</v>
+        <v>-2.5</v>
       </c>
       <c r="X15">
-        <v>-1770.3</v>
+        <v>-32.700000000000003</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>-5.8</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>217.5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38776</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C16">
-        <v>248.5</v>
+        <v>-71.599999999999994</v>
       </c>
       <c r="D16">
-        <v>2440.1999999999998</v>
+        <v>1073.2</v>
       </c>
       <c r="E16">
-        <v>655.6</v>
+        <v>427.7</v>
       </c>
       <c r="F16">
-        <v>556.6</v>
+        <v>14</v>
       </c>
       <c r="G16">
-        <v>5188.3999999999996</v>
+        <v>1480.6</v>
       </c>
       <c r="H16">
-        <v>18293.5</v>
+        <v>8704.4</v>
       </c>
       <c r="I16">
-        <v>750.2</v>
+        <v>381.4</v>
       </c>
       <c r="J16">
-        <v>3012.9</v>
+        <v>2407.1999999999998</v>
       </c>
       <c r="K16">
-        <v>12.7</v>
+        <v>252</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1928,81 +2027,81 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1922.3</v>
+        <v>1013.5</v>
       </c>
       <c r="O16">
-        <v>7028.9</v>
+        <v>5052.7</v>
       </c>
       <c r="P16">
-        <v>3026.2</v>
+        <v>2659.2</v>
       </c>
       <c r="Q16">
-        <v>-123.7</v>
+        <v>-1.4</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38776</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>11264.6</v>
+        <v>3651.7</v>
       </c>
       <c r="U16">
-        <v>2367</v>
+        <v>164.6</v>
       </c>
       <c r="V16">
-        <v>796.3</v>
+        <v>-70.400000000000006</v>
       </c>
       <c r="W16">
-        <v>-95.1</v>
+        <v>-2.6</v>
       </c>
       <c r="X16">
-        <v>-574.5</v>
+        <v>119.9</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>-143.80000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>248.4</v>
+        <v>-71.599999999999994</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38868</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C17">
-        <v>201.9</v>
+        <v>-180.9</v>
       </c>
       <c r="D17">
-        <v>2250.6999999999998</v>
+        <v>1331.5</v>
       </c>
       <c r="E17">
-        <v>699.4</v>
+        <v>455.6</v>
       </c>
       <c r="F17">
-        <v>414.7</v>
+        <v>166.2</v>
       </c>
       <c r="G17">
-        <v>5658.5</v>
+        <v>1582.8</v>
       </c>
       <c r="H17">
-        <v>18455.5</v>
+        <v>8723</v>
       </c>
       <c r="I17">
-        <v>762.2</v>
+        <v>389.2</v>
       </c>
       <c r="J17">
-        <v>3774.2</v>
+        <v>2388.1</v>
       </c>
       <c r="K17">
-        <v>0.4</v>
+        <v>152.80000000000001</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2011,247 +2110,247 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1549.6</v>
+        <v>1128.5</v>
       </c>
       <c r="O17">
-        <v>7493</v>
+        <v>5171.8</v>
       </c>
       <c r="P17">
-        <v>3815.6</v>
+        <v>2610.1999999999998</v>
       </c>
       <c r="Q17">
-        <v>603.6</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38868</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>7600</v>
       </c>
       <c r="T17">
-        <v>10962.5</v>
+        <v>3551.2</v>
       </c>
       <c r="U17">
-        <v>2970.6</v>
+        <v>173.3</v>
       </c>
       <c r="V17">
-        <v>356.5</v>
+        <v>202.7</v>
       </c>
       <c r="W17">
-        <v>-93.8</v>
+        <v>-2.6</v>
       </c>
       <c r="X17">
-        <v>455.4</v>
+        <v>-43.6</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-2.4</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>201.9</v>
+        <v>-180.9</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38960</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C18">
-        <v>360.7</v>
+        <v>109</v>
       </c>
       <c r="D18">
-        <v>2378.6</v>
+        <v>1288.5999999999999</v>
       </c>
       <c r="E18">
-        <v>672.2</v>
+        <v>466.6</v>
       </c>
       <c r="F18">
-        <v>579.4</v>
+        <v>196.3</v>
       </c>
       <c r="G18">
-        <v>5215.5</v>
+        <v>1617.8</v>
       </c>
       <c r="H18">
-        <v>18283</v>
+        <v>8745.6</v>
       </c>
       <c r="I18">
-        <v>797.3</v>
+        <v>410.2</v>
       </c>
       <c r="J18">
-        <v>3778</v>
+        <v>2224.9</v>
       </c>
       <c r="K18">
-        <v>13.5</v>
+        <v>126.6</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>-256.10000000000002</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>-6.1</v>
       </c>
       <c r="N18">
-        <v>1596.7</v>
+        <v>1285.9000000000001</v>
       </c>
       <c r="O18">
-        <v>7562.4</v>
+        <v>5079.3999999999996</v>
       </c>
       <c r="P18">
-        <v>3832.5</v>
+        <v>2571.6</v>
       </c>
       <c r="Q18">
-        <v>-596</v>
+        <v>41.5</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38960</v>
       </c>
       <c r="S18">
-        <v>9100</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>10720.6</v>
+        <v>3666.2</v>
       </c>
       <c r="U18">
-        <v>2374.6</v>
+        <v>214.8</v>
       </c>
       <c r="V18">
-        <v>342.3</v>
+        <v>150.6</v>
       </c>
       <c r="W18">
-        <v>-93.9</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>-279</v>
+        <v>-28.9</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-2.6</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>360.7</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>39051</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C19">
-        <v>294.8</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="D19">
-        <v>2139.1</v>
+        <v>1522</v>
       </c>
       <c r="E19">
-        <v>774.2</v>
+        <v>569.79999999999995</v>
       </c>
       <c r="F19">
-        <v>419.2</v>
+        <v>160.5</v>
       </c>
       <c r="G19">
-        <v>5251.6</v>
+        <v>1627.4</v>
       </c>
       <c r="H19">
-        <v>17631.900000000001</v>
+        <v>8653.2000000000007</v>
       </c>
       <c r="I19">
-        <v>706.8</v>
+        <v>811.4</v>
       </c>
       <c r="J19">
-        <v>3775.2</v>
+        <v>2210.8000000000002</v>
       </c>
       <c r="K19">
-        <v>10.4</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="L19">
-        <v>-32.700000000000003</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>-0.6</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1620.7</v>
+        <v>1233.5999999999999</v>
       </c>
       <c r="O19">
-        <v>7425.2</v>
+        <v>4981.3999999999996</v>
       </c>
       <c r="P19">
-        <v>3826.6</v>
+        <v>2503.5</v>
       </c>
       <c r="Q19">
-        <v>142.80000000000001</v>
+        <v>53.6</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>39051</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>10206.700000000001</v>
+        <v>3671.8</v>
       </c>
       <c r="U19">
-        <v>2517.4</v>
+        <v>268.39999999999998</v>
       </c>
       <c r="V19">
-        <v>728.9</v>
+        <v>149.80000000000001</v>
       </c>
       <c r="W19">
-        <v>-91.4</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>-300.39999999999998</v>
+        <v>-36.9</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>294.8</v>
+        <v>65.900000000000006</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>39141</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C20">
-        <v>390.6</v>
+        <v>42.2</v>
       </c>
       <c r="D20">
-        <v>2487.5</v>
+        <v>1278.7</v>
       </c>
       <c r="E20">
-        <v>760.9</v>
+        <v>522.6</v>
       </c>
       <c r="F20">
-        <v>607.9</v>
+        <v>113.1</v>
       </c>
       <c r="G20">
-        <v>5100.1000000000004</v>
+        <v>1778.8</v>
       </c>
       <c r="H20">
-        <v>17776.900000000001</v>
+        <v>8723.1</v>
       </c>
       <c r="I20">
-        <v>858.2</v>
+        <v>806.8</v>
       </c>
       <c r="J20">
-        <v>3761.8</v>
+        <v>2427</v>
       </c>
       <c r="K20">
-        <v>27</v>
+        <v>59.3</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2260,81 +2359,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1883</v>
+        <v>1141.7</v>
       </c>
       <c r="O20">
-        <v>7625.1</v>
+        <v>5061.8999999999996</v>
       </c>
       <c r="P20">
-        <v>3845.9</v>
+        <v>2572</v>
       </c>
       <c r="Q20">
-        <v>-307.5</v>
+        <v>191.3</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>39141</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>10151.799999999999</v>
+        <v>3661.2</v>
       </c>
       <c r="U20">
-        <v>2209.9</v>
+        <v>459.7</v>
       </c>
       <c r="V20">
-        <v>603.29999999999995</v>
+        <v>154</v>
       </c>
       <c r="W20">
-        <v>-98.1</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>-597.4</v>
+        <v>103.6</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-122</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>390.6</v>
+        <v>42.2</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>39233</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C21">
-        <v>160</v>
+        <v>202.6</v>
       </c>
       <c r="D21">
-        <v>2105.5</v>
+        <v>1684.4</v>
       </c>
       <c r="E21">
-        <v>907.7</v>
+        <v>508.3</v>
       </c>
       <c r="F21">
-        <v>335.3</v>
+        <v>456.2</v>
       </c>
       <c r="G21">
-        <v>4263</v>
+        <v>1955.5</v>
       </c>
       <c r="H21">
-        <v>17117.900000000001</v>
+        <v>9163.6</v>
       </c>
       <c r="I21">
-        <v>914.9</v>
+        <v>433.5</v>
       </c>
       <c r="J21">
-        <v>3738.1</v>
+        <v>1818.1</v>
       </c>
       <c r="K21">
-        <v>18</v>
+        <v>138.6</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2343,247 +2442,247 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1871.5</v>
+        <v>1629.7</v>
       </c>
       <c r="O21">
-        <v>7490.9</v>
+        <v>4957.3999999999996</v>
       </c>
       <c r="P21">
-        <v>3798.3</v>
+        <v>2360.5</v>
       </c>
       <c r="Q21">
-        <v>-925</v>
+        <v>-39.1</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>39233</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>7100</v>
       </c>
       <c r="T21">
-        <v>9627</v>
+        <v>4206.2</v>
       </c>
       <c r="U21">
-        <v>1284.9000000000001</v>
+        <v>420.6</v>
       </c>
       <c r="V21">
-        <v>188.5</v>
+        <v>253.5</v>
       </c>
       <c r="W21">
-        <v>-98.3</v>
+        <v>-2.6</v>
       </c>
       <c r="X21">
-        <v>-131</v>
+        <v>-211</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>54.4</v>
+        <v>-1.4</v>
       </c>
       <c r="AA21">
-        <v>160</v>
+        <v>202.6</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>39325</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C22">
-        <v>155</v>
+        <v>305.5</v>
       </c>
       <c r="D22">
-        <v>2163.1999999999998</v>
+        <v>2003.3</v>
       </c>
       <c r="E22">
-        <v>742.4</v>
+        <v>537.4</v>
       </c>
       <c r="F22">
-        <v>355.5</v>
+        <v>521.79999999999995</v>
       </c>
       <c r="G22">
-        <v>4143.3999999999996</v>
+        <v>2170</v>
       </c>
       <c r="H22">
-        <v>17389.5</v>
+        <v>9313.1</v>
       </c>
       <c r="I22">
-        <v>1002.3</v>
+        <v>386.4</v>
       </c>
       <c r="J22">
-        <v>3769.5</v>
+        <v>1585.7</v>
       </c>
       <c r="K22">
-        <v>25.5</v>
+        <v>153.30000000000001</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>-91.6</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>-183.1</v>
       </c>
       <c r="N22">
-        <v>2047</v>
+        <v>1604.3</v>
       </c>
       <c r="O22">
-        <v>7824.5</v>
+        <v>4741.3</v>
       </c>
       <c r="P22">
-        <v>3836.7</v>
+        <v>2190.1</v>
       </c>
       <c r="Q22">
-        <v>-8.6</v>
+        <v>218.6</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>39325</v>
       </c>
       <c r="S22">
-        <v>8900</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>9565</v>
+        <v>4571.8</v>
       </c>
       <c r="U22">
-        <v>1276.3</v>
+        <v>639.20000000000005</v>
       </c>
       <c r="V22">
-        <v>286.89999999999998</v>
+        <v>438.4</v>
       </c>
       <c r="W22">
-        <v>-96.9</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>135.4</v>
+        <v>-150.30000000000001</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-102.1</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>155</v>
+        <v>305.5</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>39416</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C23">
-        <v>256.8</v>
+        <v>394</v>
       </c>
       <c r="D23">
-        <v>1674</v>
+        <v>2195.4</v>
       </c>
       <c r="E23">
-        <v>830.9</v>
+        <v>613.6</v>
       </c>
       <c r="F23">
-        <v>236.7</v>
+        <v>623.1</v>
       </c>
       <c r="G23">
-        <v>3957.1</v>
+        <v>2277.8000000000002</v>
       </c>
       <c r="H23">
-        <v>17627.099999999999</v>
+        <v>9694.1</v>
       </c>
       <c r="I23">
-        <v>871.9</v>
+        <v>515.5</v>
       </c>
       <c r="J23">
-        <v>3774</v>
+        <v>1382.6</v>
       </c>
       <c r="K23">
-        <v>41.8</v>
+        <v>105.9</v>
       </c>
       <c r="L23">
-        <v>-74.099999999999994</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>-1.2</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>1814.3</v>
+        <v>1444</v>
       </c>
       <c r="O23">
-        <v>7596.1</v>
+        <v>4477.7</v>
       </c>
       <c r="P23">
-        <v>3857.8</v>
+        <v>1687.5</v>
       </c>
       <c r="Q23">
-        <v>-218.2</v>
+        <v>3</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>39416</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>10031</v>
+        <v>5216.3999999999996</v>
       </c>
       <c r="U23">
-        <v>1057.7</v>
+        <v>642.20000000000005</v>
       </c>
       <c r="V23">
-        <v>265.89999999999998</v>
+        <v>542.5</v>
       </c>
       <c r="W23">
-        <v>-96.2</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>-280</v>
+        <v>-485.7</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-38.5</v>
+        <v>0</v>
       </c>
       <c r="AA23">
-        <v>256.8</v>
+        <v>394</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>39507</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C24">
-        <v>-10.1</v>
+        <v>520.79999999999995</v>
       </c>
       <c r="D24">
-        <v>1674.6</v>
+        <v>2147.1999999999998</v>
       </c>
       <c r="E24">
-        <v>519.20000000000005</v>
+        <v>699.5</v>
       </c>
       <c r="F24">
-        <v>154</v>
+        <v>727.9</v>
       </c>
       <c r="G24">
-        <v>3792.5</v>
+        <v>3167.2</v>
       </c>
       <c r="H24">
-        <v>17684.8</v>
+        <v>10600.6</v>
       </c>
       <c r="I24">
-        <v>818.1</v>
+        <v>551.79999999999995</v>
       </c>
       <c r="J24">
-        <v>3772.6</v>
+        <v>1378.4</v>
       </c>
       <c r="K24">
-        <v>54</v>
+        <v>231.3</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2592,81 +2691,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1902.7</v>
+        <v>1811.2</v>
       </c>
       <c r="O24">
-        <v>7690.6</v>
+        <v>4737.3</v>
       </c>
       <c r="P24">
-        <v>3868.9</v>
+        <v>1653.3</v>
       </c>
       <c r="Q24">
-        <v>7.3</v>
+        <v>492</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>39507</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>9994.2000000000007</v>
+        <v>5863.3</v>
       </c>
       <c r="U24">
-        <v>1059.3</v>
+        <v>1134.2</v>
       </c>
       <c r="V24">
-        <v>583.5</v>
+        <v>528</v>
       </c>
       <c r="W24">
-        <v>-96.2</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>-242.5</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-151.5</v>
+        <v>24.6</v>
       </c>
       <c r="AA24">
-        <v>-10.199999999999999</v>
+        <v>520.79999999999995</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>39599</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C25">
-        <v>39.200000000000003</v>
+        <v>862.5</v>
       </c>
       <c r="D25">
-        <v>1952.2</v>
+        <v>3466.7</v>
       </c>
       <c r="E25">
-        <v>609.4</v>
+        <v>927.1</v>
       </c>
       <c r="F25">
-        <v>213.3</v>
+        <v>1287.7</v>
       </c>
       <c r="G25">
-        <v>3449.2</v>
+        <v>4809.5</v>
       </c>
       <c r="H25">
-        <v>17263.2</v>
+        <v>11819.8</v>
       </c>
       <c r="I25">
-        <v>710.6</v>
+        <v>1022.1</v>
       </c>
       <c r="J25">
-        <v>3450.3</v>
+        <v>1375</v>
       </c>
       <c r="K25">
-        <v>53.6</v>
+        <v>133.1</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2675,247 +2774,247 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1939.4</v>
+        <v>2186.1</v>
       </c>
       <c r="O25">
-        <v>7388.9</v>
+        <v>5065.2</v>
       </c>
       <c r="P25">
-        <v>3876.7</v>
+        <v>1551.4</v>
       </c>
       <c r="Q25">
-        <v>-1006.6</v>
+        <v>826.5</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>39599</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>7400</v>
       </c>
       <c r="T25">
-        <v>9874.2999999999993</v>
+        <v>6754.6</v>
       </c>
       <c r="U25">
-        <v>653.5</v>
+        <v>1960.7</v>
       </c>
       <c r="V25">
-        <v>88.3</v>
+        <v>1037.7</v>
       </c>
       <c r="W25">
-        <v>-96.4</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>-111.6</v>
+        <v>-90.9</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>-184</v>
+        <v>-8.1</v>
       </c>
       <c r="AA25">
-        <v>39.200000000000003</v>
+        <v>862.5</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39691</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C26">
-        <v>11.9</v>
+        <v>1184.7</v>
       </c>
       <c r="D26">
-        <v>1862.1</v>
+        <v>4322.5</v>
       </c>
       <c r="E26">
-        <v>579.70000000000005</v>
+        <v>1586.3</v>
       </c>
       <c r="F26">
-        <v>205.9</v>
+        <v>1648.6</v>
       </c>
       <c r="G26">
-        <v>3057.7</v>
+        <v>6177</v>
       </c>
       <c r="H26">
-        <v>16840.7</v>
+        <v>13010.1</v>
       </c>
       <c r="I26">
-        <v>600.6</v>
+        <v>1266.5999999999999</v>
       </c>
       <c r="J26">
-        <v>3779.3</v>
+        <v>1311.4</v>
       </c>
       <c r="K26">
-        <v>0.1</v>
+        <v>109.4</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>-141.5</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>-33.799999999999997</v>
       </c>
       <c r="N26">
-        <v>1476.8</v>
+        <v>2639.8</v>
       </c>
       <c r="O26">
-        <v>7218.2</v>
+        <v>5316.3</v>
       </c>
       <c r="P26">
-        <v>3818.2</v>
+        <v>1490.1</v>
       </c>
       <c r="Q26">
-        <v>-208.1</v>
+        <v>229</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39691</v>
       </c>
       <c r="S26">
-        <v>8700</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>9622.5</v>
+        <v>7693.8</v>
       </c>
       <c r="U26">
-        <v>673.1</v>
+        <v>2189.6999999999998</v>
       </c>
       <c r="V26">
-        <v>322.5</v>
+        <v>561.5</v>
       </c>
       <c r="W26">
-        <v>-96.3</v>
+        <v>-22.2</v>
       </c>
       <c r="X26">
-        <v>-254.5</v>
+        <v>-76.5</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-39</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>11.9</v>
+        <v>1184.7</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39782</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C27">
-        <v>-0.9</v>
+        <v>959.8</v>
       </c>
       <c r="D27">
-        <v>1578.1</v>
+        <v>3006.5</v>
       </c>
       <c r="E27">
-        <v>589.70000000000005</v>
+        <v>918.1</v>
       </c>
       <c r="F27">
-        <v>129.6</v>
+        <v>773.7</v>
       </c>
       <c r="G27">
-        <v>3216.2</v>
+        <v>5970.5</v>
       </c>
       <c r="H27">
-        <v>17096.400000000001</v>
+        <v>12427.7</v>
       </c>
       <c r="I27">
-        <v>739</v>
+        <v>768.2</v>
       </c>
       <c r="J27">
-        <v>3786.6</v>
+        <v>1272.7</v>
       </c>
       <c r="K27">
-        <v>124.1</v>
+        <v>110.5</v>
       </c>
       <c r="L27">
-        <v>-14.5</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>-1.6</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>1633.4</v>
+        <v>1729.9</v>
       </c>
       <c r="O27">
-        <v>7435.9</v>
+        <v>4553.3999999999996</v>
       </c>
       <c r="P27">
-        <v>3951.6</v>
+        <v>1413.4</v>
       </c>
       <c r="Q27">
-        <v>5.6</v>
+        <v>621.9</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39782</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>9660.5</v>
+        <v>7874.3</v>
       </c>
       <c r="U27">
-        <v>675.3</v>
+        <v>2811.6</v>
       </c>
       <c r="V27">
-        <v>146</v>
+        <v>386.5</v>
       </c>
       <c r="W27">
-        <v>-96.4</v>
+        <v>-22.2</v>
       </c>
       <c r="X27">
-        <v>102.2</v>
+        <v>-83.1</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-25</v>
+        <v>745.7</v>
       </c>
       <c r="AA27">
-        <v>-0.9</v>
+        <v>959.8</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39872</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C28">
-        <v>97.3</v>
+        <v>58.8</v>
       </c>
       <c r="D28">
-        <v>1754.6</v>
+        <v>1375.5</v>
       </c>
       <c r="E28">
-        <v>556.5</v>
+        <v>633.4</v>
       </c>
       <c r="F28">
-        <v>192.3</v>
+        <v>140.30000000000001</v>
       </c>
       <c r="G28">
-        <v>3337.2</v>
+        <v>5219.6000000000004</v>
       </c>
       <c r="H28">
-        <v>17444.400000000001</v>
+        <v>11773.3</v>
       </c>
       <c r="I28">
-        <v>874.8</v>
+        <v>296</v>
       </c>
       <c r="J28">
-        <v>3799.7</v>
+        <v>1268.0999999999999</v>
       </c>
       <c r="K28">
-        <v>65.3</v>
+        <v>90</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2924,81 +3023,81 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>1872</v>
+        <v>1228.8</v>
       </c>
       <c r="O28">
-        <v>7649.8</v>
+        <v>3978</v>
       </c>
       <c r="P28">
-        <v>3907.5</v>
+        <v>1387.9</v>
       </c>
       <c r="Q28">
-        <v>-18</v>
+        <v>-282.60000000000002</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39872</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>9794.6</v>
+        <v>7795.3</v>
       </c>
       <c r="U28">
-        <v>660.6</v>
+        <v>2529</v>
       </c>
       <c r="V28">
-        <v>242.8</v>
+        <v>-11.2</v>
       </c>
       <c r="W28">
-        <v>-52.7</v>
+        <v>-22.2</v>
       </c>
       <c r="X28">
-        <v>-85.3</v>
+        <v>-47.7</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-13.9</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>97.3</v>
+        <v>58.8</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39964</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C29">
-        <v>227.5</v>
+        <v>146.9</v>
       </c>
       <c r="D29">
-        <v>1984.8</v>
+        <v>1593.5</v>
       </c>
       <c r="E29">
-        <v>597.79999999999995</v>
+        <v>544.79999999999995</v>
       </c>
       <c r="F29">
-        <v>240.8</v>
+        <v>587.29999999999995</v>
       </c>
       <c r="G29">
-        <v>3375.5</v>
+        <v>5307.8</v>
       </c>
       <c r="H29">
-        <v>17803.099999999999</v>
+        <v>12676.2</v>
       </c>
       <c r="I29">
-        <v>918.3</v>
+        <v>383.6</v>
       </c>
       <c r="J29">
-        <v>3722.3</v>
+        <v>1256.5</v>
       </c>
       <c r="K29">
-        <v>58.6</v>
+        <v>92.7</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3007,247 +3106,247 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>1897.8</v>
+        <v>1621.8</v>
       </c>
       <c r="O29">
-        <v>7647.6</v>
+        <v>4161</v>
       </c>
       <c r="P29">
-        <v>3915.1</v>
+        <v>1392.5</v>
       </c>
       <c r="Q29">
-        <v>27.4</v>
+        <v>174.2</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39964</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="T29">
-        <v>10155.5</v>
+        <v>8515.2000000000007</v>
       </c>
       <c r="U29">
-        <v>685.7</v>
+        <v>2703.2</v>
       </c>
       <c r="V29">
-        <v>135.5</v>
+        <v>305.8</v>
       </c>
       <c r="W29">
-        <v>-52.7</v>
+        <v>-22.3</v>
       </c>
       <c r="X29">
-        <v>94.3</v>
+        <v>-17.600000000000001</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-71.3</v>
+        <v>-17.3</v>
       </c>
       <c r="AA29">
-        <v>227.5</v>
+        <v>146.9</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>40056</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C30">
-        <v>-431.1</v>
+        <v>100.6</v>
       </c>
       <c r="D30">
-        <v>2091.9</v>
+        <v>1457.2</v>
       </c>
       <c r="E30">
-        <v>561.29999999999995</v>
+        <v>485.5</v>
       </c>
       <c r="F30">
-        <v>280.10000000000002</v>
+        <v>222.2</v>
       </c>
       <c r="G30">
-        <v>4616.5</v>
+        <v>5002.2</v>
       </c>
       <c r="H30">
-        <v>18633.400000000001</v>
+        <v>12478.9</v>
       </c>
       <c r="I30">
-        <v>927.1</v>
+        <v>429.8</v>
       </c>
       <c r="J30">
-        <v>4551.5</v>
+        <v>1253.2</v>
       </c>
       <c r="K30">
-        <v>6.1</v>
+        <v>107.1</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>-63.2</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>-17.399999999999999</v>
       </c>
       <c r="N30">
-        <v>2031.1</v>
+        <v>1315.3</v>
       </c>
       <c r="O30">
-        <v>8994.2999999999993</v>
+        <v>3864.3</v>
       </c>
       <c r="P30">
-        <v>5227.7</v>
+        <v>1390</v>
       </c>
       <c r="Q30">
-        <v>1468</v>
+        <v>-104.5</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>40056</v>
       </c>
       <c r="S30">
-        <v>8500</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>9639.1</v>
+        <v>8614.6</v>
       </c>
       <c r="U30">
-        <v>2153.5</v>
+        <v>2598.6999999999998</v>
       </c>
       <c r="V30">
-        <v>411.2</v>
+        <v>172.4</v>
       </c>
       <c r="W30">
-        <v>-8.8000000000000007</v>
+        <v>-22.2</v>
       </c>
       <c r="X30">
-        <v>1089.5999999999999</v>
+        <v>-27.5</v>
       </c>
       <c r="Y30">
-        <v>326.60000000000002</v>
+        <v>0</v>
       </c>
       <c r="Z30">
-        <v>-1.8</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>-431.1</v>
+        <v>100.6</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>40147</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C31">
-        <v>42.3</v>
+        <v>107.8</v>
       </c>
       <c r="D31">
-        <v>1933.7</v>
+        <v>1709.7</v>
       </c>
       <c r="E31">
-        <v>708.4</v>
+        <v>579.5</v>
       </c>
       <c r="F31">
-        <v>212.1</v>
+        <v>346.8</v>
       </c>
       <c r="G31">
-        <v>3841.4</v>
+        <v>5011.3</v>
       </c>
       <c r="H31">
-        <v>20452.3</v>
+        <v>12696.6</v>
       </c>
       <c r="I31">
-        <v>1106.0999999999999</v>
+        <v>505.8</v>
       </c>
       <c r="J31">
-        <v>4823.1000000000004</v>
+        <v>1250.2</v>
       </c>
       <c r="K31">
-        <v>71.8</v>
+        <v>140.19999999999999</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-206.9</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>2220.5</v>
+        <v>1867.8</v>
       </c>
       <c r="O31">
-        <v>9772.6</v>
+        <v>4443.7</v>
       </c>
       <c r="P31">
-        <v>5145.7</v>
+        <v>1406.4</v>
       </c>
       <c r="Q31">
-        <v>-1491.3</v>
+        <v>49.4</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>40147</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>10679.7</v>
+        <v>8252.9</v>
       </c>
       <c r="U31">
-        <v>659.4</v>
+        <v>2648.1</v>
       </c>
       <c r="V31">
-        <v>-71</v>
+        <v>174.8</v>
       </c>
       <c r="W31">
-        <v>-9.6</v>
+        <v>-22.6</v>
       </c>
       <c r="X31">
-        <v>-213.3</v>
+        <v>-5.7</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AA31">
-        <v>42.3</v>
+        <v>107.8</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>40237</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C32">
-        <v>67.900000000000006</v>
+        <v>222.6</v>
       </c>
       <c r="D32">
-        <v>2205</v>
+        <v>1731.9</v>
       </c>
       <c r="E32">
-        <v>624.9</v>
+        <v>595</v>
       </c>
       <c r="F32">
-        <v>278.60000000000002</v>
+        <v>476.5</v>
       </c>
       <c r="G32">
-        <v>4170.3999999999996</v>
+        <v>4791.3</v>
       </c>
       <c r="H32">
-        <v>20398</v>
+        <v>12278.2</v>
       </c>
       <c r="I32">
-        <v>1159.3</v>
+        <v>475.1</v>
       </c>
       <c r="J32">
-        <v>4736.5</v>
+        <v>1246</v>
       </c>
       <c r="K32">
-        <v>20.2</v>
+        <v>96.3</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3256,81 +3355,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>2594.9</v>
+        <v>1226.5999999999999</v>
       </c>
       <c r="O32">
-        <v>9982.2999999999993</v>
+        <v>3786</v>
       </c>
       <c r="P32">
-        <v>5017.8999999999996</v>
+        <v>1358.8</v>
       </c>
       <c r="Q32">
-        <v>375.4</v>
+        <v>-356.3</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>40237</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>10415.700000000001</v>
+        <v>8492.2000000000007</v>
       </c>
       <c r="U32">
-        <v>1035.3</v>
+        <v>2291.8000000000002</v>
       </c>
       <c r="V32">
-        <v>807</v>
+        <v>476.7</v>
       </c>
       <c r="W32">
-        <v>-9.6</v>
+        <v>-22.4</v>
       </c>
       <c r="X32">
-        <v>-169.9</v>
+        <v>-639</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>-4.9000000000000004</v>
+        <v>0</v>
       </c>
       <c r="AA32">
-        <v>67.900000000000006</v>
+        <v>222.6</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>40329</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C33">
-        <v>247.5</v>
+        <v>396.1</v>
       </c>
       <c r="D33">
-        <v>2928.1</v>
+        <v>1860.3</v>
       </c>
       <c r="E33">
-        <v>834.9</v>
+        <v>536.1</v>
       </c>
       <c r="F33">
-        <v>495.5</v>
+        <v>687.6</v>
       </c>
       <c r="G33">
-        <v>4178</v>
+        <v>4974.8</v>
       </c>
       <c r="H33">
-        <v>20414.7</v>
+        <v>12707.7</v>
       </c>
       <c r="I33">
-        <v>1343.4</v>
+        <v>566.70000000000005</v>
       </c>
       <c r="J33">
-        <v>4523.1000000000004</v>
+        <v>1245.5999999999999</v>
       </c>
       <c r="K33">
-        <v>25.7</v>
+        <v>83.1</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3339,37 +3438,37 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>2502.4</v>
+        <v>1303.9000000000001</v>
       </c>
       <c r="O33">
-        <v>9761.4</v>
+        <v>3959.3</v>
       </c>
       <c r="P33">
-        <v>4610</v>
+        <v>1343.9</v>
       </c>
       <c r="Q33">
-        <v>-27.6</v>
+        <v>231.2</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>40329</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="T33">
-        <v>10653.3</v>
+        <v>8748.4</v>
       </c>
       <c r="U33">
-        <v>1029.9000000000001</v>
+        <v>2523</v>
       </c>
       <c r="V33">
-        <v>523.79999999999995</v>
+        <v>532.1</v>
       </c>
       <c r="W33">
-        <v>-9.6999999999999993</v>
+        <v>-22.3</v>
       </c>
       <c r="X33">
-        <v>-296.39999999999998</v>
+        <v>-38.4</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -3378,208 +3477,208 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>247.5</v>
+        <v>396.1</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>40421</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C34">
-        <v>112.3</v>
+        <v>297.7</v>
       </c>
       <c r="D34">
-        <v>2520.5</v>
+        <v>2188.3000000000002</v>
       </c>
       <c r="E34">
-        <v>702.4</v>
+        <v>572.1</v>
       </c>
       <c r="F34">
-        <v>465</v>
+        <v>504.7</v>
       </c>
       <c r="G34">
-        <v>4237</v>
+        <v>4754.8</v>
       </c>
       <c r="H34">
-        <v>20119.2</v>
+        <v>13071.9</v>
       </c>
       <c r="I34">
-        <v>1353.7</v>
+        <v>559.1</v>
       </c>
       <c r="J34">
-        <v>4189.3</v>
+        <v>1244.0999999999999</v>
       </c>
       <c r="K34">
-        <v>11.5</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>-90.9</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>-3.7</v>
       </c>
       <c r="N34">
-        <v>2483.6999999999998</v>
+        <v>1379.1</v>
       </c>
       <c r="O34">
-        <v>9514.5</v>
+        <v>4013.2</v>
       </c>
       <c r="P34">
-        <v>4529</v>
+        <v>1332.6</v>
       </c>
       <c r="Q34">
-        <v>-179.9</v>
+        <v>-160.30000000000001</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>40421</v>
       </c>
       <c r="S34">
-        <v>12900</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>10604.7</v>
+        <v>9058.7000000000007</v>
       </c>
       <c r="U34">
-        <v>847.7</v>
+        <v>2362.6999999999998</v>
       </c>
       <c r="V34">
-        <v>150</v>
+        <v>556.20000000000005</v>
       </c>
       <c r="W34">
-        <v>-9.6</v>
+        <v>-22.3</v>
       </c>
       <c r="X34">
-        <v>-45.2</v>
+        <v>-33</v>
       </c>
       <c r="Y34">
-        <v>302.2</v>
+        <v>0</v>
       </c>
       <c r="Z34">
-        <v>2.1</v>
+        <v>-385.3</v>
       </c>
       <c r="AA34">
-        <v>112.3</v>
+        <v>297.7</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>40512</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C35">
-        <v>130.80000000000001</v>
+        <v>1025.5999999999999</v>
       </c>
       <c r="D35">
-        <v>1899.7</v>
+        <v>2674.8</v>
       </c>
       <c r="E35">
-        <v>792</v>
+        <v>671.6</v>
       </c>
       <c r="F35">
-        <v>309.5</v>
+        <v>768.3</v>
       </c>
       <c r="G35">
-        <v>4146.3</v>
+        <v>5524.3</v>
       </c>
       <c r="H35">
-        <v>20445.3</v>
+        <v>14199.4</v>
       </c>
       <c r="I35">
-        <v>1248.5</v>
+        <v>539.29999999999995</v>
       </c>
       <c r="J35">
-        <v>4215.2</v>
+        <v>788.4</v>
       </c>
       <c r="K35">
-        <v>167.5</v>
+        <v>54.5</v>
       </c>
       <c r="L35">
-        <v>-53.7</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>-10.1</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>2397.1999999999998</v>
+        <v>1770</v>
       </c>
       <c r="O35">
-        <v>9637.7999999999993</v>
+        <v>3928.6</v>
       </c>
       <c r="P35">
-        <v>4988.8999999999996</v>
+        <v>1309.2</v>
       </c>
       <c r="Q35">
-        <v>-468.6</v>
+        <v>1296.7</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>40512</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>10807.5</v>
+        <v>10270.799999999999</v>
       </c>
       <c r="U35">
-        <v>384.6</v>
+        <v>3659.4</v>
       </c>
       <c r="V35">
-        <v>-175.5</v>
+        <v>531.70000000000005</v>
       </c>
       <c r="W35">
-        <v>-9.6</v>
+        <v>-22.3</v>
       </c>
       <c r="X35">
-        <v>22.3</v>
+        <v>-30.2</v>
       </c>
       <c r="Y35">
-        <v>481.5</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>-10.7</v>
+        <v>1030</v>
       </c>
       <c r="AA35">
-        <v>130.80000000000001</v>
+        <v>1025.5999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>40602</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C36">
-        <v>-233.1</v>
+        <v>542.1</v>
       </c>
       <c r="D36">
-        <v>2176.9</v>
+        <v>2214.3000000000002</v>
       </c>
       <c r="E36">
-        <v>711.7</v>
+        <v>798.4</v>
       </c>
       <c r="F36">
-        <v>227.2</v>
+        <v>853.6</v>
       </c>
       <c r="G36">
-        <v>4228.8</v>
+        <v>5693.6</v>
       </c>
       <c r="H36">
-        <v>20643.900000000001</v>
+        <v>14699.1</v>
       </c>
       <c r="I36">
-        <v>1237.7</v>
+        <v>670.1</v>
       </c>
       <c r="J36">
-        <v>4226.8999999999996</v>
+        <v>762.2</v>
       </c>
       <c r="K36">
-        <v>94.4</v>
+        <v>74.2</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3588,81 +3687,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>2526.9</v>
+        <v>1534.5</v>
       </c>
       <c r="O36">
-        <v>9961.6</v>
+        <v>3689.5</v>
       </c>
       <c r="P36">
-        <v>4922.2</v>
+        <v>886.7</v>
       </c>
       <c r="Q36">
-        <v>15.6</v>
+        <v>-307.3</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>40602</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>10682.3</v>
+        <v>11009.6</v>
       </c>
       <c r="U36">
-        <v>401.9</v>
+        <v>3352.1</v>
       </c>
       <c r="V36">
-        <v>507.3</v>
+        <v>365.9</v>
       </c>
       <c r="W36">
-        <v>-19.3</v>
+        <v>-22.4</v>
       </c>
       <c r="X36">
-        <v>-143.80000000000001</v>
+        <v>-452.4</v>
       </c>
       <c r="Y36">
-        <v>478.2</v>
+        <v>0</v>
       </c>
       <c r="Z36">
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>-233.1</v>
+        <v>542.1</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40694</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C37">
-        <v>-44.1</v>
+        <v>649.20000000000005</v>
       </c>
       <c r="D37">
-        <v>2753.4</v>
+        <v>2860.4</v>
       </c>
       <c r="E37">
-        <v>801.4</v>
+        <v>878.5</v>
       </c>
       <c r="F37">
-        <v>291.89999999999998</v>
+        <v>1035</v>
       </c>
       <c r="G37">
-        <v>4125.3</v>
+        <v>6684.9</v>
       </c>
       <c r="H37">
-        <v>20440.099999999999</v>
+        <v>15786.9</v>
       </c>
       <c r="I37">
-        <v>1458.1</v>
+        <v>941.1</v>
       </c>
       <c r="J37">
-        <v>4226.3</v>
+        <v>761.3</v>
       </c>
       <c r="K37">
-        <v>88</v>
+        <v>23.6</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3671,247 +3770,247 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>2724.5</v>
+        <v>1928.5</v>
       </c>
       <c r="O37">
-        <v>10128.9</v>
+        <v>4125</v>
       </c>
       <c r="P37">
-        <v>4879.3</v>
+        <v>832.9</v>
       </c>
       <c r="Q37">
-        <v>240.5</v>
+        <v>554.29999999999995</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40694</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>7700</v>
       </c>
       <c r="T37">
-        <v>10311.200000000001</v>
+        <v>11661.9</v>
       </c>
       <c r="U37">
-        <v>641.1</v>
+        <v>3906.4</v>
       </c>
       <c r="V37">
-        <v>486</v>
+        <v>972.9</v>
       </c>
       <c r="W37">
-        <v>-19.3</v>
+        <v>-22.3</v>
       </c>
       <c r="X37">
-        <v>105.2</v>
+        <v>-69.400000000000006</v>
       </c>
       <c r="Y37">
-        <v>449.8</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="AA37">
-        <v>-44.1</v>
+        <v>649.20000000000005</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40786</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C38">
-        <v>-921</v>
+        <v>526</v>
       </c>
       <c r="D38">
-        <v>2076.3000000000002</v>
+        <v>3083.3</v>
       </c>
       <c r="E38">
-        <v>645.79999999999995</v>
+        <v>784.6</v>
       </c>
       <c r="F38">
-        <v>68.7</v>
+        <v>848.2</v>
       </c>
       <c r="G38">
-        <v>3718.2</v>
+        <v>6757.8</v>
       </c>
       <c r="H38">
-        <v>19298.5</v>
+        <v>16180.8</v>
       </c>
       <c r="I38">
-        <v>1421</v>
+        <v>903.1</v>
       </c>
       <c r="J38">
-        <v>4222.1000000000004</v>
+        <v>737.4</v>
       </c>
       <c r="K38">
-        <v>41.6</v>
+        <v>13.6</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>-25.3</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>-1.8</v>
       </c>
       <c r="N38">
-        <v>2591.6999999999998</v>
+        <v>1783.9</v>
       </c>
       <c r="O38">
-        <v>9930.9</v>
+        <v>3942.1</v>
       </c>
       <c r="P38">
-        <v>4808.3999999999996</v>
+        <v>825.1</v>
       </c>
       <c r="Q38">
-        <v>-126.2</v>
+        <v>131.6</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40786</v>
       </c>
       <c r="S38">
-        <v>12600</v>
+        <v>0</v>
       </c>
       <c r="T38">
-        <v>9367.6</v>
+        <v>12238.7</v>
       </c>
       <c r="U38">
-        <v>519.1</v>
+        <v>4038</v>
       </c>
       <c r="V38">
-        <v>277.60000000000002</v>
+        <v>554.29999999999995</v>
       </c>
       <c r="W38">
-        <v>-19</v>
+        <v>-22.4</v>
       </c>
       <c r="X38">
-        <v>-65.900000000000006</v>
+        <v>-28.8</v>
       </c>
       <c r="Y38">
-        <v>430.4</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-0.9</v>
+        <v>0</v>
       </c>
       <c r="AA38">
-        <v>-921</v>
+        <v>526</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40877</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C39">
-        <v>-203</v>
+        <v>623.6</v>
       </c>
       <c r="D39">
-        <v>1798.1</v>
+        <v>3014.5</v>
       </c>
       <c r="E39">
-        <v>723</v>
+        <v>919.2</v>
       </c>
       <c r="F39">
-        <v>63.4</v>
+        <v>881.2</v>
       </c>
       <c r="G39">
-        <v>4221.1000000000004</v>
+        <v>6359.4</v>
       </c>
       <c r="H39">
-        <v>18975.5</v>
+        <v>15802.3</v>
       </c>
       <c r="I39">
-        <v>1193.7</v>
+        <v>853.6</v>
       </c>
       <c r="J39">
-        <v>4525.2</v>
+        <v>1008.9</v>
       </c>
       <c r="K39">
-        <v>1008.2</v>
+        <v>28.3</v>
       </c>
       <c r="L39">
-        <v>-132.6</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>-14.2</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>3269</v>
+        <v>2098.6999999999998</v>
       </c>
       <c r="O39">
-        <v>10415.6</v>
+        <v>4482.1000000000004</v>
       </c>
       <c r="P39">
-        <v>5760.8</v>
+        <v>1550.7</v>
       </c>
       <c r="Q39">
-        <v>549.6</v>
+        <v>-410.4</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40877</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>8559.9</v>
+        <v>11320.2</v>
       </c>
       <c r="U39">
-        <v>1069.2</v>
+        <v>3627.6</v>
       </c>
       <c r="V39">
-        <v>189.9</v>
+        <v>517.70000000000005</v>
       </c>
       <c r="W39">
-        <v>-18.899999999999999</v>
+        <v>-22.3</v>
       </c>
       <c r="X39">
-        <v>698.3</v>
+        <v>-460.4</v>
       </c>
       <c r="Y39">
-        <v>116.5</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AA39">
-        <v>-203</v>
+        <v>623.6</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40968</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C40">
-        <v>47.4</v>
+        <v>273.3</v>
       </c>
       <c r="D40">
-        <v>2044.7</v>
+        <v>2189.5</v>
       </c>
       <c r="E40">
-        <v>689.6</v>
+        <v>656.3</v>
       </c>
       <c r="F40">
-        <v>279</v>
+        <v>521.79999999999995</v>
       </c>
       <c r="G40">
-        <v>4055.6</v>
+        <v>5930.4</v>
       </c>
       <c r="H40">
-        <v>19020.599999999999</v>
+        <v>15936.7</v>
       </c>
       <c r="I40">
-        <v>1222.2</v>
+        <v>800.5</v>
       </c>
       <c r="J40">
-        <v>4527.8999999999996</v>
+        <v>1010.6</v>
       </c>
       <c r="K40">
-        <v>610</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3920,81 +4019,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>3112.9</v>
+        <v>1614.8</v>
       </c>
       <c r="O40">
-        <v>10356.9</v>
+        <v>4106.3999999999996</v>
       </c>
       <c r="P40">
-        <v>5391</v>
+        <v>1093.3</v>
       </c>
       <c r="Q40">
-        <v>9.6999999999999993</v>
+        <v>-425.7</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40968</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>8663.7000000000007</v>
+        <v>11830.3</v>
       </c>
       <c r="U40">
-        <v>1073.3</v>
+        <v>3201.9</v>
       </c>
       <c r="V40">
-        <v>813.7</v>
+        <v>404.5</v>
       </c>
       <c r="W40">
-        <v>-19</v>
+        <v>-21.4</v>
       </c>
       <c r="X40">
-        <v>-530.70000000000005</v>
+        <v>-479.9</v>
       </c>
       <c r="Y40">
-        <v>126.6</v>
+        <v>0</v>
       </c>
       <c r="Z40">
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>47.4</v>
+        <v>273.3</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>41060</v>
       </c>
       <c r="B41" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C41">
-        <v>-6.2</v>
+        <v>507.3</v>
       </c>
       <c r="D41">
-        <v>2381.5</v>
+        <v>2820.5</v>
       </c>
       <c r="E41">
-        <v>794.6</v>
+        <v>854.8</v>
       </c>
       <c r="F41">
-        <v>374.1</v>
+        <v>825.8</v>
       </c>
       <c r="G41">
-        <v>3748.8</v>
+        <v>6581.1</v>
       </c>
       <c r="H41">
-        <v>18851.599999999999</v>
+        <v>16690.400000000001</v>
       </c>
       <c r="I41">
-        <v>1363.2</v>
+        <v>912.4</v>
       </c>
       <c r="J41">
-        <v>4519.5</v>
+        <v>1010</v>
       </c>
       <c r="K41">
-        <v>215.5</v>
+        <v>42.5</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4003,128 +4102,2867 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>2865.7</v>
+        <v>1917.7</v>
       </c>
       <c r="O41">
-        <v>10147.4</v>
+        <v>4691</v>
       </c>
       <c r="P41">
-        <v>4978.3</v>
+        <v>1053</v>
       </c>
       <c r="Q41">
-        <v>-146.5</v>
+        <v>609.1</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>41060</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="T41">
-        <v>8704.2000000000007</v>
+        <v>11999.4</v>
       </c>
       <c r="U41">
-        <v>923</v>
+        <v>3811</v>
       </c>
       <c r="V41">
-        <v>340.6</v>
+        <v>1229.3</v>
       </c>
       <c r="W41">
-        <v>-18.899999999999999</v>
+        <v>-53.4</v>
       </c>
       <c r="X41">
-        <v>-218.5</v>
+        <v>-92</v>
       </c>
       <c r="Y41">
-        <v>118.8</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AA41">
-        <v>-6.2</v>
+        <v>507.3</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>41182</v>
       </c>
       <c r="B42" t="s">
         <v>65</v>
       </c>
       <c r="C42">
+        <v>417.4</v>
+      </c>
+      <c r="D42">
+        <v>2645.7</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>774.6</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>-5.4</v>
+      </c>
+      <c r="M42">
+        <v>-0.3</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>-107.7</v>
+      </c>
+      <c r="R42">
+        <v>41182</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>343.8</v>
+      </c>
+      <c r="W42">
+        <v>-106.6</v>
+      </c>
+      <c r="X42">
+        <v>-102.9</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>417.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B43" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43">
+        <v>615.70000000000005</v>
+      </c>
+      <c r="D43">
+        <v>2367.8000000000002</v>
+      </c>
+      <c r="E43">
+        <v>747.5</v>
+      </c>
+      <c r="F43">
+        <v>577.79999999999995</v>
+      </c>
+      <c r="G43">
+        <v>6510</v>
+      </c>
+      <c r="H43">
+        <v>17438.400000000001</v>
+      </c>
+      <c r="I43">
+        <v>832.5</v>
+      </c>
+      <c r="J43">
+        <v>1009.8</v>
+      </c>
+      <c r="K43">
+        <v>50.7</v>
+      </c>
+      <c r="L43">
+        <v>-50.4</v>
+      </c>
+      <c r="M43">
+        <v>-0.5</v>
+      </c>
+      <c r="N43">
+        <v>1668</v>
+      </c>
+      <c r="O43">
+        <v>4355.2</v>
+      </c>
+      <c r="P43">
+        <v>1061.3</v>
+      </c>
+      <c r="Q43">
+        <v>-143.19999999999999</v>
+      </c>
+      <c r="R43">
+        <v>41274</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>13083.2</v>
+      </c>
+      <c r="U43">
+        <v>3405.3</v>
+      </c>
+      <c r="V43">
+        <v>377</v>
+      </c>
+      <c r="W43">
+        <v>-106.7</v>
+      </c>
+      <c r="X43">
+        <v>-82.6</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>615.70000000000005</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44">
+        <v>379.8</v>
+      </c>
+      <c r="D44">
+        <v>2312.4</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>641.79999999999995</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>-64.2</v>
+      </c>
+      <c r="M44">
+        <v>-0.2</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>1061.3</v>
+      </c>
+      <c r="Q44">
+        <v>106.1</v>
+      </c>
+      <c r="R44">
+        <v>41364</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>13083.2</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>579.4</v>
+      </c>
+      <c r="W44">
+        <v>-106.4</v>
+      </c>
+      <c r="X44">
+        <v>-84.8</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-15</v>
+      </c>
+      <c r="AA44">
+        <v>379.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45">
+        <v>429.8</v>
+      </c>
+      <c r="D45">
+        <v>2618.6999999999998</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>665.3</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>404.1</v>
+      </c>
+      <c r="R45">
+        <v>41455</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>982.3</v>
+      </c>
+      <c r="W45">
+        <v>-106.8</v>
+      </c>
+      <c r="X45">
+        <v>-152.30000000000001</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-6.8</v>
+      </c>
+      <c r="AA45">
+        <v>429.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46">
+        <v>124.4</v>
+      </c>
+      <c r="D46">
+        <v>1908.7</v>
+      </c>
+      <c r="E46">
+        <v>748.9</v>
+      </c>
+      <c r="F46">
+        <v>386.9</v>
+      </c>
+      <c r="G46">
+        <v>6291.3</v>
+      </c>
+      <c r="H46">
+        <v>17656.599999999999</v>
+      </c>
+      <c r="I46">
+        <v>611.70000000000005</v>
+      </c>
+      <c r="J46">
+        <v>1011.5</v>
+      </c>
+      <c r="K46">
+        <v>14.5</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>1302.3</v>
+      </c>
+      <c r="O46">
+        <v>4105.5</v>
+      </c>
+      <c r="P46">
+        <v>1026.8</v>
+      </c>
+      <c r="Q46">
+        <v>-576.9</v>
+      </c>
+      <c r="R46">
+        <v>41547</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>13551.1</v>
+      </c>
+      <c r="U46">
+        <v>3338.6</v>
+      </c>
+      <c r="V46">
+        <v>-45</v>
+      </c>
+      <c r="W46">
+        <v>-106.8</v>
+      </c>
+      <c r="X46">
+        <v>-89.5</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>-134.5</v>
+      </c>
+      <c r="AA46">
+        <v>124.4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47">
+        <v>-351.14276000000001</v>
+      </c>
+      <c r="D47">
+        <v>1330.2156500000001</v>
+      </c>
+      <c r="E47">
+        <v>612.5</v>
+      </c>
+      <c r="F47">
+        <v>-273.95690999999999</v>
+      </c>
+      <c r="G47">
+        <v>8105.8</v>
+      </c>
+      <c r="H47">
+        <v>19554</v>
+      </c>
+      <c r="I47">
+        <v>570.20000000000005</v>
+      </c>
+      <c r="J47">
+        <v>3008.9</v>
+      </c>
+      <c r="K47">
+        <v>22.6</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>3265.9</v>
+      </c>
+      <c r="O47">
+        <v>8233.4</v>
+      </c>
+      <c r="P47">
+        <v>3031.9</v>
+      </c>
+      <c r="Q47">
+        <v>2802.70046</v>
+      </c>
+      <c r="R47">
+        <v>41639</v>
+      </c>
+      <c r="S47">
+        <v>8200</v>
+      </c>
+      <c r="T47">
+        <v>11320.6</v>
+      </c>
+      <c r="U47">
+        <v>5293.1</v>
+      </c>
+      <c r="V47">
+        <v>7.98597</v>
+      </c>
+      <c r="W47">
+        <v>-46.000059999999998</v>
+      </c>
+      <c r="X47">
+        <v>3249.97192</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-116.10005</v>
+      </c>
+      <c r="AA47">
+        <v>-351.14276000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B48" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48">
+        <v>217.5</v>
+      </c>
+      <c r="D48">
+        <v>1986.2</v>
+      </c>
+      <c r="E48">
+        <v>642.79999999999995</v>
+      </c>
+      <c r="F48">
+        <v>411.6</v>
+      </c>
+      <c r="G48">
+        <v>5355.4</v>
+      </c>
+      <c r="H48">
+        <v>18112.3</v>
+      </c>
+      <c r="I48">
+        <v>592.79999999999995</v>
+      </c>
+      <c r="J48">
+        <v>3009.1</v>
+      </c>
+      <c r="K48">
+        <v>41.3</v>
+      </c>
+      <c r="L48">
+        <v>-58.4</v>
+      </c>
+      <c r="M48">
+        <v>-0.3</v>
+      </c>
+      <c r="N48">
+        <v>2163.3000000000002</v>
+      </c>
+      <c r="O48">
+        <v>7261.2</v>
+      </c>
+      <c r="P48">
+        <v>3050.8</v>
+      </c>
+      <c r="Q48">
+        <v>-2802.4</v>
+      </c>
+      <c r="R48">
+        <v>41729</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>10851.1</v>
+      </c>
+      <c r="U48">
+        <v>2490.6999999999998</v>
+      </c>
+      <c r="V48">
+        <v>627</v>
+      </c>
+      <c r="W48">
+        <v>-99.7</v>
+      </c>
+      <c r="X48">
+        <v>-1770.3</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-5.8</v>
+      </c>
+      <c r="AA48">
+        <v>217.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B49" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49">
+        <v>248.5</v>
+      </c>
+      <c r="D49">
+        <v>2440.1999999999998</v>
+      </c>
+      <c r="E49">
+        <v>655.6</v>
+      </c>
+      <c r="F49">
+        <v>556.6</v>
+      </c>
+      <c r="G49">
+        <v>5188.3999999999996</v>
+      </c>
+      <c r="H49">
+        <v>18293.5</v>
+      </c>
+      <c r="I49">
+        <v>750.2</v>
+      </c>
+      <c r="J49">
+        <v>3012.9</v>
+      </c>
+      <c r="K49">
+        <v>12.7</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>1922.3</v>
+      </c>
+      <c r="O49">
+        <v>7028.9</v>
+      </c>
+      <c r="P49">
+        <v>3026.2</v>
+      </c>
+      <c r="Q49">
+        <v>-123.7</v>
+      </c>
+      <c r="R49">
+        <v>41820</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>11264.6</v>
+      </c>
+      <c r="U49">
+        <v>2367</v>
+      </c>
+      <c r="V49">
+        <v>796.3</v>
+      </c>
+      <c r="W49">
+        <v>-95.1</v>
+      </c>
+      <c r="X49">
+        <v>-574.5</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>-143.80000000000001</v>
+      </c>
+      <c r="AA49">
+        <v>248.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B50" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50">
+        <v>201.9</v>
+      </c>
+      <c r="D50">
+        <v>2250.6999999999998</v>
+      </c>
+      <c r="E50">
+        <v>699.4</v>
+      </c>
+      <c r="F50">
+        <v>414.7</v>
+      </c>
+      <c r="G50">
+        <v>5658.5</v>
+      </c>
+      <c r="H50">
+        <v>18455.5</v>
+      </c>
+      <c r="I50">
+        <v>762.2</v>
+      </c>
+      <c r="J50">
+        <v>3774.2</v>
+      </c>
+      <c r="K50">
+        <v>0.4</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1549.6</v>
+      </c>
+      <c r="O50">
+        <v>7493</v>
+      </c>
+      <c r="P50">
+        <v>3815.6</v>
+      </c>
+      <c r="Q50">
+        <v>603.6</v>
+      </c>
+      <c r="R50">
+        <v>41912</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>10962.5</v>
+      </c>
+      <c r="U50">
+        <v>2970.6</v>
+      </c>
+      <c r="V50">
+        <v>356.5</v>
+      </c>
+      <c r="W50">
+        <v>-93.8</v>
+      </c>
+      <c r="X50">
+        <v>455.4</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>-2.4</v>
+      </c>
+      <c r="AA50">
+        <v>201.9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51">
+        <v>360.7</v>
+      </c>
+      <c r="D51">
+        <v>2378.6</v>
+      </c>
+      <c r="E51">
+        <v>672.2</v>
+      </c>
+      <c r="F51">
+        <v>579.4</v>
+      </c>
+      <c r="G51">
+        <v>5215.5</v>
+      </c>
+      <c r="H51">
+        <v>18283</v>
+      </c>
+      <c r="I51">
+        <v>797.3</v>
+      </c>
+      <c r="J51">
+        <v>3778</v>
+      </c>
+      <c r="K51">
+        <v>13.5</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>1596.7</v>
+      </c>
+      <c r="O51">
+        <v>7562.4</v>
+      </c>
+      <c r="P51">
+        <v>3832.5</v>
+      </c>
+      <c r="Q51">
+        <v>-596</v>
+      </c>
+      <c r="R51">
+        <v>42004</v>
+      </c>
+      <c r="S51">
+        <v>9100</v>
+      </c>
+      <c r="T51">
+        <v>10720.6</v>
+      </c>
+      <c r="U51">
+        <v>2374.6</v>
+      </c>
+      <c r="V51">
+        <v>342.3</v>
+      </c>
+      <c r="W51">
+        <v>-93.9</v>
+      </c>
+      <c r="X51">
+        <v>-279</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>-2.6</v>
+      </c>
+      <c r="AA51">
+        <v>360.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52">
+        <v>294.8</v>
+      </c>
+      <c r="D52">
+        <v>2139.1</v>
+      </c>
+      <c r="E52">
+        <v>774.2</v>
+      </c>
+      <c r="F52">
+        <v>419.2</v>
+      </c>
+      <c r="G52">
+        <v>5251.6</v>
+      </c>
+      <c r="H52">
+        <v>17631.900000000001</v>
+      </c>
+      <c r="I52">
+        <v>706.8</v>
+      </c>
+      <c r="J52">
+        <v>3775.2</v>
+      </c>
+      <c r="K52">
+        <v>10.4</v>
+      </c>
+      <c r="L52">
+        <v>-32.700000000000003</v>
+      </c>
+      <c r="M52">
+        <v>-0.6</v>
+      </c>
+      <c r="N52">
+        <v>1620.7</v>
+      </c>
+      <c r="O52">
+        <v>7425.2</v>
+      </c>
+      <c r="P52">
+        <v>3826.6</v>
+      </c>
+      <c r="Q52">
+        <v>142.80000000000001</v>
+      </c>
+      <c r="R52">
+        <v>42094</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>10206.700000000001</v>
+      </c>
+      <c r="U52">
+        <v>2517.4</v>
+      </c>
+      <c r="V52">
+        <v>728.9</v>
+      </c>
+      <c r="W52">
+        <v>-91.4</v>
+      </c>
+      <c r="X52">
+        <v>-300.39999999999998</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>-3</v>
+      </c>
+      <c r="AA52">
+        <v>294.8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53">
+        <v>390.6</v>
+      </c>
+      <c r="D53">
+        <v>2487.5</v>
+      </c>
+      <c r="E53">
+        <v>760.9</v>
+      </c>
+      <c r="F53">
+        <v>607.9</v>
+      </c>
+      <c r="G53">
+        <v>5100.1000000000004</v>
+      </c>
+      <c r="H53">
+        <v>17776.900000000001</v>
+      </c>
+      <c r="I53">
+        <v>858.2</v>
+      </c>
+      <c r="J53">
+        <v>3761.8</v>
+      </c>
+      <c r="K53">
+        <v>27</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>1883</v>
+      </c>
+      <c r="O53">
+        <v>7625.1</v>
+      </c>
+      <c r="P53">
+        <v>3845.9</v>
+      </c>
+      <c r="Q53">
+        <v>-307.5</v>
+      </c>
+      <c r="R53">
+        <v>42185</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>10151.799999999999</v>
+      </c>
+      <c r="U53">
+        <v>2209.9</v>
+      </c>
+      <c r="V53">
+        <v>603.29999999999995</v>
+      </c>
+      <c r="W53">
+        <v>-98.1</v>
+      </c>
+      <c r="X53">
+        <v>-597.4</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-122</v>
+      </c>
+      <c r="AA53">
+        <v>390.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54">
+        <v>160</v>
+      </c>
+      <c r="D54">
+        <v>2105.5</v>
+      </c>
+      <c r="E54">
+        <v>907.7</v>
+      </c>
+      <c r="F54">
+        <v>335.3</v>
+      </c>
+      <c r="G54">
+        <v>4263</v>
+      </c>
+      <c r="H54">
+        <v>17117.900000000001</v>
+      </c>
+      <c r="I54">
+        <v>914.9</v>
+      </c>
+      <c r="J54">
+        <v>3738.1</v>
+      </c>
+      <c r="K54">
+        <v>18</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1871.5</v>
+      </c>
+      <c r="O54">
+        <v>7490.9</v>
+      </c>
+      <c r="P54">
+        <v>3798.3</v>
+      </c>
+      <c r="Q54">
+        <v>-925</v>
+      </c>
+      <c r="R54">
+        <v>42277</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>9627</v>
+      </c>
+      <c r="U54">
+        <v>1284.9000000000001</v>
+      </c>
+      <c r="V54">
+        <v>188.5</v>
+      </c>
+      <c r="W54">
+        <v>-98.3</v>
+      </c>
+      <c r="X54">
+        <v>-131</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>54.4</v>
+      </c>
+      <c r="AA54">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B55" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55">
+        <v>155</v>
+      </c>
+      <c r="D55">
+        <v>2163.1999999999998</v>
+      </c>
+      <c r="E55">
+        <v>742.4</v>
+      </c>
+      <c r="F55">
+        <v>355.5</v>
+      </c>
+      <c r="G55">
+        <v>4143.3999999999996</v>
+      </c>
+      <c r="H55">
+        <v>17389.5</v>
+      </c>
+      <c r="I55">
+        <v>1002.3</v>
+      </c>
+      <c r="J55">
+        <v>3769.5</v>
+      </c>
+      <c r="K55">
+        <v>25.5</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>2047</v>
+      </c>
+      <c r="O55">
+        <v>7824.5</v>
+      </c>
+      <c r="P55">
+        <v>3836.7</v>
+      </c>
+      <c r="Q55">
+        <v>-8.6</v>
+      </c>
+      <c r="R55">
+        <v>42369</v>
+      </c>
+      <c r="S55">
+        <v>8900</v>
+      </c>
+      <c r="T55">
+        <v>9565</v>
+      </c>
+      <c r="U55">
+        <v>1276.3</v>
+      </c>
+      <c r="V55">
+        <v>286.89999999999998</v>
+      </c>
+      <c r="W55">
+        <v>-96.9</v>
+      </c>
+      <c r="X55">
+        <v>135.4</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-102.1</v>
+      </c>
+      <c r="AA55">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B56" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56">
+        <v>256.8</v>
+      </c>
+      <c r="D56">
+        <v>1674</v>
+      </c>
+      <c r="E56">
+        <v>830.9</v>
+      </c>
+      <c r="F56">
+        <v>236.7</v>
+      </c>
+      <c r="G56">
+        <v>3957.1</v>
+      </c>
+      <c r="H56">
+        <v>17627.099999999999</v>
+      </c>
+      <c r="I56">
+        <v>871.9</v>
+      </c>
+      <c r="J56">
+        <v>3774</v>
+      </c>
+      <c r="K56">
+        <v>41.8</v>
+      </c>
+      <c r="L56">
+        <v>-74.099999999999994</v>
+      </c>
+      <c r="M56">
+        <v>-1.2</v>
+      </c>
+      <c r="N56">
+        <v>1814.3</v>
+      </c>
+      <c r="O56">
+        <v>7596.1</v>
+      </c>
+      <c r="P56">
+        <v>3857.8</v>
+      </c>
+      <c r="Q56">
+        <v>-218.2</v>
+      </c>
+      <c r="R56">
+        <v>42460</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>10031</v>
+      </c>
+      <c r="U56">
+        <v>1057.7</v>
+      </c>
+      <c r="V56">
+        <v>265.89999999999998</v>
+      </c>
+      <c r="W56">
+        <v>-96.2</v>
+      </c>
+      <c r="X56">
+        <v>-280</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>-38.5</v>
+      </c>
+      <c r="AA56">
+        <v>256.8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B57" t="s">
+        <v>80</v>
+      </c>
+      <c r="C57">
+        <v>-10.1</v>
+      </c>
+      <c r="D57">
+        <v>1674.6</v>
+      </c>
+      <c r="E57">
+        <v>519.20000000000005</v>
+      </c>
+      <c r="F57">
+        <v>154</v>
+      </c>
+      <c r="G57">
+        <v>3792.5</v>
+      </c>
+      <c r="H57">
+        <v>17684.8</v>
+      </c>
+      <c r="I57">
+        <v>818.1</v>
+      </c>
+      <c r="J57">
+        <v>3772.6</v>
+      </c>
+      <c r="K57">
+        <v>54</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1902.7</v>
+      </c>
+      <c r="O57">
+        <v>7690.6</v>
+      </c>
+      <c r="P57">
+        <v>3868.9</v>
+      </c>
+      <c r="Q57">
+        <v>7.3</v>
+      </c>
+      <c r="R57">
+        <v>42551</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>9994.2000000000007</v>
+      </c>
+      <c r="U57">
+        <v>1059.3</v>
+      </c>
+      <c r="V57">
+        <v>583.5</v>
+      </c>
+      <c r="W57">
+        <v>-96.2</v>
+      </c>
+      <c r="X57">
+        <v>-242.5</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>-151.5</v>
+      </c>
+      <c r="AA57">
+        <v>-10.199999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B58" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="D58">
+        <v>1952.2</v>
+      </c>
+      <c r="E58">
+        <v>609.4</v>
+      </c>
+      <c r="F58">
+        <v>213.3</v>
+      </c>
+      <c r="G58">
+        <v>3449.2</v>
+      </c>
+      <c r="H58">
+        <v>17263.2</v>
+      </c>
+      <c r="I58">
+        <v>710.6</v>
+      </c>
+      <c r="J58">
+        <v>3450.3</v>
+      </c>
+      <c r="K58">
+        <v>53.6</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>1939.4</v>
+      </c>
+      <c r="O58">
+        <v>7388.9</v>
+      </c>
+      <c r="P58">
+        <v>3876.7</v>
+      </c>
+      <c r="Q58">
+        <v>-1006.6</v>
+      </c>
+      <c r="R58">
+        <v>42643</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>9874.2999999999993</v>
+      </c>
+      <c r="U58">
+        <v>653.5</v>
+      </c>
+      <c r="V58">
+        <v>88.3</v>
+      </c>
+      <c r="W58">
+        <v>-96.4</v>
+      </c>
+      <c r="X58">
+        <v>-111.6</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>-184</v>
+      </c>
+      <c r="AA58">
+        <v>39.200000000000003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B59" t="s">
+        <v>82</v>
+      </c>
+      <c r="C59">
+        <v>11.9</v>
+      </c>
+      <c r="D59">
+        <v>1862.1</v>
+      </c>
+      <c r="E59">
+        <v>579.70000000000005</v>
+      </c>
+      <c r="F59">
+        <v>205.9</v>
+      </c>
+      <c r="G59">
+        <v>3057.7</v>
+      </c>
+      <c r="H59">
+        <v>16840.7</v>
+      </c>
+      <c r="I59">
+        <v>600.6</v>
+      </c>
+      <c r="J59">
+        <v>3779.3</v>
+      </c>
+      <c r="K59">
+        <v>0.1</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>1476.8</v>
+      </c>
+      <c r="O59">
+        <v>7218.2</v>
+      </c>
+      <c r="P59">
+        <v>3818.2</v>
+      </c>
+      <c r="Q59">
+        <v>-208.1</v>
+      </c>
+      <c r="R59">
+        <v>42735</v>
+      </c>
+      <c r="S59">
+        <v>8700</v>
+      </c>
+      <c r="T59">
+        <v>9622.5</v>
+      </c>
+      <c r="U59">
+        <v>673.1</v>
+      </c>
+      <c r="V59">
+        <v>322.5</v>
+      </c>
+      <c r="W59">
+        <v>-96.3</v>
+      </c>
+      <c r="X59">
+        <v>-254.5</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-39</v>
+      </c>
+      <c r="AA59">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B60" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60">
+        <v>-0.9</v>
+      </c>
+      <c r="D60">
+        <v>1578.1</v>
+      </c>
+      <c r="E60">
+        <v>589.70000000000005</v>
+      </c>
+      <c r="F60">
+        <v>129.6</v>
+      </c>
+      <c r="G60">
+        <v>3216.2</v>
+      </c>
+      <c r="H60">
+        <v>17096.400000000001</v>
+      </c>
+      <c r="I60">
+        <v>739</v>
+      </c>
+      <c r="J60">
+        <v>3786.6</v>
+      </c>
+      <c r="K60">
+        <v>124.1</v>
+      </c>
+      <c r="L60">
+        <v>-14.5</v>
+      </c>
+      <c r="M60">
+        <v>-1.6</v>
+      </c>
+      <c r="N60">
+        <v>1633.4</v>
+      </c>
+      <c r="O60">
+        <v>7435.9</v>
+      </c>
+      <c r="P60">
+        <v>3951.6</v>
+      </c>
+      <c r="Q60">
+        <v>5.6</v>
+      </c>
+      <c r="R60">
+        <v>42825</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>9660.5</v>
+      </c>
+      <c r="U60">
+        <v>675.3</v>
+      </c>
+      <c r="V60">
+        <v>146</v>
+      </c>
+      <c r="W60">
+        <v>-96.4</v>
+      </c>
+      <c r="X60">
+        <v>102.2</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>-25</v>
+      </c>
+      <c r="AA60">
+        <v>-0.9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B61" t="s">
+        <v>84</v>
+      </c>
+      <c r="C61">
+        <v>97.3</v>
+      </c>
+      <c r="D61">
+        <v>1754.6</v>
+      </c>
+      <c r="E61">
+        <v>556.5</v>
+      </c>
+      <c r="F61">
+        <v>192.3</v>
+      </c>
+      <c r="G61">
+        <v>3337.2</v>
+      </c>
+      <c r="H61">
+        <v>17444.400000000001</v>
+      </c>
+      <c r="I61">
+        <v>874.8</v>
+      </c>
+      <c r="J61">
+        <v>3799.7</v>
+      </c>
+      <c r="K61">
+        <v>65.3</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1872</v>
+      </c>
+      <c r="O61">
+        <v>7649.8</v>
+      </c>
+      <c r="P61">
+        <v>3907.5</v>
+      </c>
+      <c r="Q61">
+        <v>-18</v>
+      </c>
+      <c r="R61">
+        <v>42916</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>9794.6</v>
+      </c>
+      <c r="U61">
+        <v>660.6</v>
+      </c>
+      <c r="V61">
+        <v>242.8</v>
+      </c>
+      <c r="W61">
+        <v>-52.7</v>
+      </c>
+      <c r="X61">
+        <v>-85.3</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>-13.9</v>
+      </c>
+      <c r="AA61">
+        <v>97.3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B62" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62">
+        <v>227.5</v>
+      </c>
+      <c r="D62">
+        <v>1984.8</v>
+      </c>
+      <c r="E62">
+        <v>597.79999999999995</v>
+      </c>
+      <c r="F62">
+        <v>240.8</v>
+      </c>
+      <c r="G62">
+        <v>3375.5</v>
+      </c>
+      <c r="H62">
+        <v>17803.099999999999</v>
+      </c>
+      <c r="I62">
+        <v>918.3</v>
+      </c>
+      <c r="J62">
+        <v>3722.3</v>
+      </c>
+      <c r="K62">
+        <v>58.6</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>1897.8</v>
+      </c>
+      <c r="O62">
+        <v>7647.6</v>
+      </c>
+      <c r="P62">
+        <v>3915.1</v>
+      </c>
+      <c r="Q62">
+        <v>27.4</v>
+      </c>
+      <c r="R62">
+        <v>43008</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>10155.5</v>
+      </c>
+      <c r="U62">
+        <v>685.7</v>
+      </c>
+      <c r="V62">
+        <v>135.5</v>
+      </c>
+      <c r="W62">
+        <v>-52.7</v>
+      </c>
+      <c r="X62">
+        <v>94.3</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>-71.3</v>
+      </c>
+      <c r="AA62">
+        <v>227.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B63" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63">
+        <v>-431.1</v>
+      </c>
+      <c r="D63">
+        <v>2091.9</v>
+      </c>
+      <c r="E63">
+        <v>561.29999999999995</v>
+      </c>
+      <c r="F63">
+        <v>280.10000000000002</v>
+      </c>
+      <c r="G63">
+        <v>4616.5</v>
+      </c>
+      <c r="H63">
+        <v>18633.400000000001</v>
+      </c>
+      <c r="I63">
+        <v>927.1</v>
+      </c>
+      <c r="J63">
+        <v>4551.5</v>
+      </c>
+      <c r="K63">
+        <v>6.1</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>2031.1</v>
+      </c>
+      <c r="O63">
+        <v>8994.2999999999993</v>
+      </c>
+      <c r="P63">
+        <v>5227.7</v>
+      </c>
+      <c r="Q63">
+        <v>1468</v>
+      </c>
+      <c r="R63">
+        <v>43100</v>
+      </c>
+      <c r="S63">
+        <v>8500</v>
+      </c>
+      <c r="T63">
+        <v>9639.1</v>
+      </c>
+      <c r="U63">
+        <v>2153.5</v>
+      </c>
+      <c r="V63">
+        <v>411.2</v>
+      </c>
+      <c r="W63">
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="X63">
+        <v>1089.5999999999999</v>
+      </c>
+      <c r="Y63">
+        <v>326.60000000000002</v>
+      </c>
+      <c r="Z63">
+        <v>-1.8</v>
+      </c>
+      <c r="AA63">
+        <v>-431.1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B64" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64">
+        <v>42.3</v>
+      </c>
+      <c r="D64">
+        <v>1933.7</v>
+      </c>
+      <c r="E64">
+        <v>708.4</v>
+      </c>
+      <c r="F64">
+        <v>212.1</v>
+      </c>
+      <c r="G64">
+        <v>3841.4</v>
+      </c>
+      <c r="H64">
+        <v>20452.3</v>
+      </c>
+      <c r="I64">
+        <v>1106.0999999999999</v>
+      </c>
+      <c r="J64">
+        <v>4823.1000000000004</v>
+      </c>
+      <c r="K64">
+        <v>71.8</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>-206.9</v>
+      </c>
+      <c r="N64">
+        <v>2220.5</v>
+      </c>
+      <c r="O64">
+        <v>9772.6</v>
+      </c>
+      <c r="P64">
+        <v>5145.7</v>
+      </c>
+      <c r="Q64">
+        <v>-1491.3</v>
+      </c>
+      <c r="R64">
+        <v>43190</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>10679.7</v>
+      </c>
+      <c r="U64">
+        <v>659.4</v>
+      </c>
+      <c r="V64">
+        <v>-71</v>
+      </c>
+      <c r="W64">
+        <v>-9.6</v>
+      </c>
+      <c r="X64">
+        <v>-213.3</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>1.3</v>
+      </c>
+      <c r="AA64">
+        <v>42.3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B65" t="s">
+        <v>88</v>
+      </c>
+      <c r="C65">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="D65">
+        <v>2205</v>
+      </c>
+      <c r="E65">
+        <v>624.9</v>
+      </c>
+      <c r="F65">
+        <v>278.60000000000002</v>
+      </c>
+      <c r="G65">
+        <v>4170.3999999999996</v>
+      </c>
+      <c r="H65">
+        <v>20398</v>
+      </c>
+      <c r="I65">
+        <v>1159.3</v>
+      </c>
+      <c r="J65">
+        <v>4736.5</v>
+      </c>
+      <c r="K65">
+        <v>20.2</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>2594.9</v>
+      </c>
+      <c r="O65">
+        <v>9982.2999999999993</v>
+      </c>
+      <c r="P65">
+        <v>5017.8999999999996</v>
+      </c>
+      <c r="Q65">
+        <v>375.4</v>
+      </c>
+      <c r="R65">
+        <v>43281</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>10415.700000000001</v>
+      </c>
+      <c r="U65">
+        <v>1035.3</v>
+      </c>
+      <c r="V65">
+        <v>807</v>
+      </c>
+      <c r="W65">
+        <v>-9.6</v>
+      </c>
+      <c r="X65">
+        <v>-169.9</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="AA65">
+        <v>67.900000000000006</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B66" t="s">
+        <v>89</v>
+      </c>
+      <c r="C66">
+        <v>247.5</v>
+      </c>
+      <c r="D66">
+        <v>2928.1</v>
+      </c>
+      <c r="E66">
+        <v>834.9</v>
+      </c>
+      <c r="F66">
+        <v>495.5</v>
+      </c>
+      <c r="G66">
+        <v>4178</v>
+      </c>
+      <c r="H66">
+        <v>20414.7</v>
+      </c>
+      <c r="I66">
+        <v>1343.4</v>
+      </c>
+      <c r="J66">
+        <v>4523.1000000000004</v>
+      </c>
+      <c r="K66">
+        <v>25.7</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>2502.4</v>
+      </c>
+      <c r="O66">
+        <v>9761.4</v>
+      </c>
+      <c r="P66">
+        <v>4610</v>
+      </c>
+      <c r="Q66">
+        <v>-27.6</v>
+      </c>
+      <c r="R66">
+        <v>43373</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>10653.3</v>
+      </c>
+      <c r="U66">
+        <v>1029.9000000000001</v>
+      </c>
+      <c r="V66">
+        <v>523.79999999999995</v>
+      </c>
+      <c r="W66">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="X66">
+        <v>-296.39999999999998</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>247.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B67" t="s">
+        <v>90</v>
+      </c>
+      <c r="C67">
+        <v>112.3</v>
+      </c>
+      <c r="D67">
+        <v>2520.5</v>
+      </c>
+      <c r="E67">
+        <v>702.4</v>
+      </c>
+      <c r="F67">
+        <v>465</v>
+      </c>
+      <c r="G67">
+        <v>4237</v>
+      </c>
+      <c r="H67">
+        <v>20119.2</v>
+      </c>
+      <c r="I67">
+        <v>1353.7</v>
+      </c>
+      <c r="J67">
+        <v>4189.3</v>
+      </c>
+      <c r="K67">
+        <v>11.5</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>2483.6999999999998</v>
+      </c>
+      <c r="O67">
+        <v>9514.5</v>
+      </c>
+      <c r="P67">
+        <v>4529</v>
+      </c>
+      <c r="Q67">
+        <v>-179.9</v>
+      </c>
+      <c r="R67">
+        <v>43465</v>
+      </c>
+      <c r="S67">
+        <v>12900</v>
+      </c>
+      <c r="T67">
+        <v>10604.7</v>
+      </c>
+      <c r="U67">
+        <v>847.7</v>
+      </c>
+      <c r="V67">
+        <v>150</v>
+      </c>
+      <c r="W67">
+        <v>-9.6</v>
+      </c>
+      <c r="X67">
+        <v>-45.2</v>
+      </c>
+      <c r="Y67">
+        <v>302.2</v>
+      </c>
+      <c r="Z67">
+        <v>2.1</v>
+      </c>
+      <c r="AA67">
+        <v>112.3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B68" t="s">
+        <v>91</v>
+      </c>
+      <c r="C68">
+        <v>130.80000000000001</v>
+      </c>
+      <c r="D68">
+        <v>1899.7</v>
+      </c>
+      <c r="E68">
+        <v>792</v>
+      </c>
+      <c r="F68">
+        <v>309.5</v>
+      </c>
+      <c r="G68">
+        <v>4146.3</v>
+      </c>
+      <c r="H68">
+        <v>20445.3</v>
+      </c>
+      <c r="I68">
+        <v>1248.5</v>
+      </c>
+      <c r="J68">
+        <v>4215.2</v>
+      </c>
+      <c r="K68">
+        <v>167.5</v>
+      </c>
+      <c r="L68">
+        <v>-53.7</v>
+      </c>
+      <c r="M68">
+        <v>-10.1</v>
+      </c>
+      <c r="N68">
+        <v>2397.1999999999998</v>
+      </c>
+      <c r="O68">
+        <v>9637.7999999999993</v>
+      </c>
+      <c r="P68">
+        <v>4988.8999999999996</v>
+      </c>
+      <c r="Q68">
+        <v>-468.6</v>
+      </c>
+      <c r="R68">
+        <v>43555</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>10807.5</v>
+      </c>
+      <c r="U68">
+        <v>384.6</v>
+      </c>
+      <c r="V68">
+        <v>-175.5</v>
+      </c>
+      <c r="W68">
+        <v>-9.6</v>
+      </c>
+      <c r="X68">
+        <v>22.3</v>
+      </c>
+      <c r="Y68">
+        <v>481.5</v>
+      </c>
+      <c r="Z68">
+        <v>-10.7</v>
+      </c>
+      <c r="AA68">
+        <v>130.80000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B69" t="s">
+        <v>92</v>
+      </c>
+      <c r="C69">
+        <v>-233.1</v>
+      </c>
+      <c r="D69">
+        <v>2176.9</v>
+      </c>
+      <c r="E69">
+        <v>711.7</v>
+      </c>
+      <c r="F69">
+        <v>227.2</v>
+      </c>
+      <c r="G69">
+        <v>4228.8</v>
+      </c>
+      <c r="H69">
+        <v>20643.900000000001</v>
+      </c>
+      <c r="I69">
+        <v>1237.7</v>
+      </c>
+      <c r="J69">
+        <v>4226.8999999999996</v>
+      </c>
+      <c r="K69">
+        <v>94.4</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>2526.9</v>
+      </c>
+      <c r="O69">
+        <v>9961.6</v>
+      </c>
+      <c r="P69">
+        <v>4922.2</v>
+      </c>
+      <c r="Q69">
+        <v>15.6</v>
+      </c>
+      <c r="R69">
+        <v>43646</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>10682.3</v>
+      </c>
+      <c r="U69">
+        <v>401.9</v>
+      </c>
+      <c r="V69">
+        <v>507.3</v>
+      </c>
+      <c r="W69">
+        <v>-19.3</v>
+      </c>
+      <c r="X69">
+        <v>-143.80000000000001</v>
+      </c>
+      <c r="Y69">
+        <v>478.2</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>-233.1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B70" t="s">
+        <v>93</v>
+      </c>
+      <c r="C70">
+        <v>-44.1</v>
+      </c>
+      <c r="D70">
+        <v>2753.4</v>
+      </c>
+      <c r="E70">
+        <v>801.4</v>
+      </c>
+      <c r="F70">
+        <v>291.89999999999998</v>
+      </c>
+      <c r="G70">
+        <v>4125.3</v>
+      </c>
+      <c r="H70">
+        <v>20440.099999999999</v>
+      </c>
+      <c r="I70">
+        <v>1458.1</v>
+      </c>
+      <c r="J70">
+        <v>4226.3</v>
+      </c>
+      <c r="K70">
+        <v>88</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>2724.5</v>
+      </c>
+      <c r="O70">
+        <v>10128.9</v>
+      </c>
+      <c r="P70">
+        <v>4879.3</v>
+      </c>
+      <c r="Q70">
+        <v>240.5</v>
+      </c>
+      <c r="R70">
+        <v>43738</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>10311.200000000001</v>
+      </c>
+      <c r="U70">
+        <v>641.1</v>
+      </c>
+      <c r="V70">
+        <v>486</v>
+      </c>
+      <c r="W70">
+        <v>-19.3</v>
+      </c>
+      <c r="X70">
+        <v>105.2</v>
+      </c>
+      <c r="Y70">
+        <v>449.8</v>
+      </c>
+      <c r="Z70">
+        <v>-1.5</v>
+      </c>
+      <c r="AA70">
+        <v>-44.1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B71" t="s">
+        <v>94</v>
+      </c>
+      <c r="C71">
+        <v>-921</v>
+      </c>
+      <c r="D71">
+        <v>2076.3000000000002</v>
+      </c>
+      <c r="E71">
+        <v>645.79999999999995</v>
+      </c>
+      <c r="F71">
+        <v>68.7</v>
+      </c>
+      <c r="G71">
+        <v>3718.2</v>
+      </c>
+      <c r="H71">
+        <v>19298.5</v>
+      </c>
+      <c r="I71">
+        <v>1421</v>
+      </c>
+      <c r="J71">
+        <v>4222.1000000000004</v>
+      </c>
+      <c r="K71">
+        <v>41.6</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>2591.6999999999998</v>
+      </c>
+      <c r="O71">
+        <v>9930.9</v>
+      </c>
+      <c r="P71">
+        <v>4808.3999999999996</v>
+      </c>
+      <c r="Q71">
+        <v>-126.2</v>
+      </c>
+      <c r="R71">
+        <v>43830</v>
+      </c>
+      <c r="S71">
+        <v>12600</v>
+      </c>
+      <c r="T71">
+        <v>9367.6</v>
+      </c>
+      <c r="U71">
+        <v>519.1</v>
+      </c>
+      <c r="V71">
+        <v>277.60000000000002</v>
+      </c>
+      <c r="W71">
+        <v>-19</v>
+      </c>
+      <c r="X71">
+        <v>-65.900000000000006</v>
+      </c>
+      <c r="Y71">
+        <v>430.4</v>
+      </c>
+      <c r="Z71">
+        <v>-0.9</v>
+      </c>
+      <c r="AA71">
+        <v>-921</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B72" t="s">
+        <v>95</v>
+      </c>
+      <c r="C72">
+        <v>-203</v>
+      </c>
+      <c r="D72">
+        <v>1798.1</v>
+      </c>
+      <c r="E72">
+        <v>723</v>
+      </c>
+      <c r="F72">
+        <v>63.4</v>
+      </c>
+      <c r="G72">
+        <v>4221.1000000000004</v>
+      </c>
+      <c r="H72">
+        <v>18975.5</v>
+      </c>
+      <c r="I72">
+        <v>1193.7</v>
+      </c>
+      <c r="J72">
+        <v>4525.2</v>
+      </c>
+      <c r="K72">
+        <v>1008.2</v>
+      </c>
+      <c r="L72">
+        <v>-132.6</v>
+      </c>
+      <c r="M72">
+        <v>-14.2</v>
+      </c>
+      <c r="N72">
+        <v>3269</v>
+      </c>
+      <c r="O72">
+        <v>10415.6</v>
+      </c>
+      <c r="P72">
+        <v>5760.8</v>
+      </c>
+      <c r="Q72">
+        <v>549.6</v>
+      </c>
+      <c r="R72">
+        <v>43921</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>8559.9</v>
+      </c>
+      <c r="U72">
+        <v>1069.2</v>
+      </c>
+      <c r="V72">
+        <v>189.9</v>
+      </c>
+      <c r="W72">
+        <v>-18.899999999999999</v>
+      </c>
+      <c r="X72">
+        <v>698.3</v>
+      </c>
+      <c r="Y72">
+        <v>116.5</v>
+      </c>
+      <c r="Z72">
+        <v>0.1</v>
+      </c>
+      <c r="AA72">
+        <v>-203</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B73" t="s">
+        <v>96</v>
+      </c>
+      <c r="C73">
+        <v>47.4</v>
+      </c>
+      <c r="D73">
+        <v>2044.7</v>
+      </c>
+      <c r="E73">
+        <v>689.6</v>
+      </c>
+      <c r="F73">
+        <v>279</v>
+      </c>
+      <c r="G73">
+        <v>4055.6</v>
+      </c>
+      <c r="H73">
+        <v>19020.599999999999</v>
+      </c>
+      <c r="I73">
+        <v>1222.2</v>
+      </c>
+      <c r="J73">
+        <v>4527.8999999999996</v>
+      </c>
+      <c r="K73">
+        <v>610</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>3112.9</v>
+      </c>
+      <c r="O73">
+        <v>10356.9</v>
+      </c>
+      <c r="P73">
+        <v>5391</v>
+      </c>
+      <c r="Q73">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="R73">
+        <v>44012</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>8663.7000000000007</v>
+      </c>
+      <c r="U73">
+        <v>1073.3</v>
+      </c>
+      <c r="V73">
+        <v>813.7</v>
+      </c>
+      <c r="W73">
+        <v>-19</v>
+      </c>
+      <c r="X73">
+        <v>-530.70000000000005</v>
+      </c>
+      <c r="Y73">
+        <v>126.6</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>47.4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B74" t="s">
+        <v>97</v>
+      </c>
+      <c r="C74">
+        <v>-6.2</v>
+      </c>
+      <c r="D74">
+        <v>2381.5</v>
+      </c>
+      <c r="E74">
+        <v>794.6</v>
+      </c>
+      <c r="F74">
+        <v>374.1</v>
+      </c>
+      <c r="G74">
+        <v>3748.8</v>
+      </c>
+      <c r="H74">
+        <v>18851.599999999999</v>
+      </c>
+      <c r="I74">
+        <v>1363.2</v>
+      </c>
+      <c r="J74">
+        <v>4519.5</v>
+      </c>
+      <c r="K74">
+        <v>215.5</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>2865.7</v>
+      </c>
+      <c r="O74">
+        <v>10147.4</v>
+      </c>
+      <c r="P74">
+        <v>4978.3</v>
+      </c>
+      <c r="Q74">
+        <v>-146.5</v>
+      </c>
+      <c r="R74">
+        <v>44104</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>8704.2000000000007</v>
+      </c>
+      <c r="U74">
+        <v>923</v>
+      </c>
+      <c r="V74">
+        <v>340.6</v>
+      </c>
+      <c r="W74">
+        <v>-18.899999999999999</v>
+      </c>
+      <c r="X74">
+        <v>-218.5</v>
+      </c>
+      <c r="Y74">
+        <v>118.8</v>
+      </c>
+      <c r="Z74">
+        <v>0.9</v>
+      </c>
+      <c r="AA74">
+        <v>-6.2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B75" t="s">
+        <v>98</v>
+      </c>
+      <c r="C75">
         <v>827.9</v>
       </c>
-      <c r="D42">
+      <c r="D75">
         <v>2457.4</v>
       </c>
-      <c r="E42">
+      <c r="E75">
         <v>732.1</v>
       </c>
-      <c r="F42">
+      <c r="F75">
         <v>348.4</v>
       </c>
-      <c r="G42">
+      <c r="G75">
         <v>3521.2</v>
       </c>
-      <c r="H42">
+      <c r="H75">
         <v>19789.8</v>
       </c>
-      <c r="I42">
+      <c r="I75">
         <v>1409.1</v>
       </c>
-      <c r="J42">
+      <c r="J75">
         <v>3779.2</v>
       </c>
-      <c r="K42">
+      <c r="K75">
         <v>0.1</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
         <v>3146.5</v>
       </c>
-      <c r="O42">
+      <c r="O75">
         <v>10034.6</v>
       </c>
-      <c r="P42">
+      <c r="P75">
         <v>4751.7</v>
       </c>
-      <c r="Q42">
+      <c r="Q75">
         <v>-350.7</v>
       </c>
-      <c r="R42">
+      <c r="R75">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S75">
         <v>12617</v>
       </c>
-      <c r="T42">
+      <c r="T75">
         <v>9755.2000000000007</v>
       </c>
-      <c r="U42">
+      <c r="U75">
         <v>574</v>
       </c>
-      <c r="V42">
+      <c r="V75">
         <v>238.4</v>
       </c>
-      <c r="W42">
+      <c r="W75">
         <v>-19</v>
       </c>
-      <c r="X42">
+      <c r="X75">
         <v>-232.9</v>
       </c>
-      <c r="Y42">
+      <c r="Y75">
         <v>404.2</v>
       </c>
-      <c r="Z42">
+      <c r="Z75">
         <v>-5.4</v>
       </c>
-      <c r="AA42">
+      <c r="AA75">
         <v>827.9</v>
       </c>
     </row>
